--- a/ClockSync.xlsx
+++ b/ClockSync.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\papillon_simulator\nodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\papillon_simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372ECF77-9E54-48FD-BB9A-0062C8CD237B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3500B29-90E2-4A5C-9AB5-9C2F268EA88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{AEEEBEB4-C43C-4F0C-B345-7B32FB7561D1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>A</t>
   </si>
@@ -82,7 +82,7 @@
     <numFmt numFmtId="165" formatCode="0.0000000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="168" formatCode="0.000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -148,10 +148,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,10 +467,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AF2CDD-D74A-4FCF-A139-BF96621A9B8A}">
-  <dimension ref="A1:R89"/>
+  <dimension ref="A1:T89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,27 +486,27 @@
     <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="5">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -520,54 +523,64 @@
         <v>4</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="4" t="str">
-        <f>B2</f>
-        <v>A</v>
-      </c>
-      <c r="I2" s="4" t="str">
-        <f>C2</f>
-        <v>B</v>
-      </c>
-      <c r="J2" s="4" t="str">
-        <f>D2</f>
-        <v>C</v>
-      </c>
-      <c r="K2" s="4" t="str">
-        <f>E2</f>
-        <v>D</v>
-      </c>
-      <c r="L2" s="4" t="str">
-        <f>F2</f>
-        <v>E</v>
+      <c r="H2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>-1E-3</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>-2E-3</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>2E-3</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -591,4372 +604,4416 @@
         <f>1+F3</f>
         <v>1.0029999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H4" s="6">
+        <f t="shared" ref="H4:L5" si="0">AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;H$2,$B4:$F4)-B4</f>
+        <v>1.7500000000000293E-3</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="0"/>
+        <v>3.0000000000001137E-3</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" si="0"/>
+        <v>4.9999999999994493E-4</v>
+      </c>
+      <c r="K4" s="6">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" si="0"/>
+        <v>-3.2499999999999751E-3</v>
+      </c>
+      <c r="N4" s="7">
+        <f t="shared" ref="N4:N68" si="1">MAX(B4:F4)-MIN(B4:F4)</f>
+        <v>4.9999999999998934E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="6">
-        <f t="shared" ref="B5:B36" si="0">B4+B$3+H4*correction_enabled+1</f>
-        <v>1.998</v>
+        <f t="shared" ref="B5:B36" si="2">B4+B$3+H4*correction_enabled+1</f>
+        <v>1.9997500000000001</v>
       </c>
       <c r="C5" s="6">
-        <f t="shared" ref="C5:C36" si="1">C4+C$3+I4*correction_enabled+1</f>
-        <v>1.996</v>
+        <f t="shared" ref="C5:C36" si="3">C4+C$3+I4*correction_enabled+1</f>
+        <v>1.9990000000000001</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" ref="D5:D36" si="2">D4+D$3+J4*correction_enabled+1</f>
-        <v>2</v>
+        <f t="shared" ref="D5:D36" si="4">D4+D$3+J4*correction_enabled+1</f>
+        <v>2.0004999999999997</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" ref="E5:E36" si="3">E4+E$3+K4*correction_enabled+1</f>
-        <v>2.004</v>
+        <f t="shared" ref="E5:E36" si="5">E4+E$3+K4*correction_enabled+1</f>
+        <v>2.0019999999999998</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" ref="F5:F36" si="4">F4+F$3+L4*correction_enabled+1</f>
-        <v>2.0059999999999998</v>
+        <f t="shared" ref="F5:F36" si="6">F4+F$3+L4*correction_enabled+1</f>
+        <v>2.0027499999999998</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="7">
-        <f t="shared" ref="H5:L6" si="5">AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;B$2,$B5:$F5)-B5</f>
-        <v>3.5000000000000586E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.3124999999996056E-3</v>
       </c>
       <c r="I5" s="7">
-        <f t="shared" si="5"/>
-        <v>6.0000000000002274E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.2499999999996412E-3</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" si="5"/>
-        <v>9.9999999999988987E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.7500000000001421E-4</v>
       </c>
       <c r="K5" s="7">
-        <f t="shared" si="5"/>
-        <v>-4.0000000000000036E-3</v>
+        <f t="shared" si="0"/>
+        <v>-1.5000000000000568E-3</v>
       </c>
       <c r="L5" s="7">
-        <f t="shared" si="5"/>
-        <v>-6.4999999999999503E-3</v>
+        <f t="shared" si="0"/>
+        <v>-2.4375000000000924E-3</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7">
-        <f t="shared" ref="N5:N68" si="6">MAX(B5:F5)-MIN(B5:F5)</f>
-        <v>9.9999999999997868E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>3.749999999999698E-3</v>
+      </c>
+      <c r="P5" s="7">
+        <f>AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;P$2,$B5:$F5)</f>
+        <v>2.0010624999999997</v>
+      </c>
+      <c r="Q5" s="7">
+        <f>AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;Q$2,$B5:$F5)</f>
+        <v>2.0012499999999998</v>
+      </c>
+      <c r="R5" s="7">
+        <f>AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;R$2,$B5:$F5)</f>
+        <v>2.0008749999999997</v>
+      </c>
+      <c r="S5" s="7">
+        <f>AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;S$2,$B5:$F5)</f>
+        <v>2.0004999999999997</v>
+      </c>
+      <c r="T5" s="7">
+        <f>AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;T$2,$B5:$F5)</f>
+        <v>2.0003124999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>A5+1</f>
         <v>3</v>
       </c>
       <c r="B6" s="6">
-        <f t="shared" si="0"/>
-        <v>2.9969999999999999</v>
+        <f t="shared" si="2"/>
+        <v>3.0000624999999999</v>
       </c>
       <c r="C6" s="6">
-        <f t="shared" si="1"/>
-        <v>2.9939999999999998</v>
+        <f t="shared" si="3"/>
+        <v>2.99925</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>3.0008749999999997</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" si="3"/>
-        <v>3.0059999999999998</v>
+        <f t="shared" si="5"/>
+        <v>3.0024999999999995</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="4"/>
-        <v>3.0089999999999999</v>
+        <f t="shared" si="6"/>
+        <v>3.0033124999999998</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="7">
-        <f t="shared" si="5"/>
-        <v>5.250000000000199E-3</v>
+        <f t="shared" ref="H6:H69" si="7">AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;H$2,$B6:$F6)-B6</f>
+        <v>1.4218749999996838E-3</v>
       </c>
       <c r="I6" s="7">
-        <f t="shared" si="5"/>
-        <v>9.0000000000003411E-3</v>
+        <f t="shared" ref="I6:I69" si="8">AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;I$2,$B6:$F6)-C6</f>
+        <v>2.4374999999996483E-3</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" si="5"/>
-        <v>1.5000000000000568E-3</v>
+        <f t="shared" ref="J6:J69" si="9">AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;J$2,$B6:$F6)-D6</f>
+        <v>4.0625000000016342E-4</v>
       </c>
       <c r="K6" s="7">
-        <f t="shared" si="5"/>
-        <v>-5.9999999999997833E-3</v>
+        <f t="shared" ref="K6:K69" si="10">AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;K$2,$B6:$F6)-E6</f>
+        <v>-1.6249999999997655E-3</v>
       </c>
       <c r="L6" s="7">
-        <f t="shared" si="5"/>
-        <v>-9.7499999999999254E-3</v>
+        <f t="shared" ref="L6:L69" si="11">AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;L$2,$B6:$F6)-F6</f>
+        <v>-2.6406250000001741E-3</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7">
+        <f t="shared" si="1"/>
+        <v>4.0624999999998579E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" ref="A7:A70" si="12">A6+1</f>
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <f t="shared" si="2"/>
+        <v>4.0004843749999992</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="3"/>
+        <v>3.9996874999999998</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="4"/>
+        <v>4.0012812499999999</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="5"/>
+        <v>4.0028749999999995</v>
+      </c>
+      <c r="F7" s="6">
         <f t="shared" si="6"/>
-        <v>1.5000000000000124E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" ref="A7:A70" si="7">A6+1</f>
-        <v>4</v>
-      </c>
-      <c r="B7" s="6">
-        <f t="shared" si="0"/>
-        <v>3.996</v>
-      </c>
-      <c r="C7" s="6">
-        <f t="shared" si="1"/>
-        <v>3.992</v>
-      </c>
-      <c r="D7" s="6">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E7" s="6">
-        <f t="shared" si="3"/>
-        <v>4.0079999999999991</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="4"/>
-        <v>4.0120000000000005</v>
+        <v>4.0036718750000002</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="7">
-        <f t="shared" ref="H7:H20" si="8">AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;B$2,$B7:$F7)-B7</f>
-        <v>7.0000000000001172E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.3945312500007745E-3</v>
       </c>
       <c r="I7" s="7">
-        <f t="shared" ref="I7:I20" si="9">AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;C$2,$B7:$F7)-C7</f>
-        <v>1.1999999999999567E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.3906249999998685E-3</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" ref="J7:J20" si="10">AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;D$2,$B7:$F7)-D7</f>
-        <v>1.9999999999997797E-3</v>
+        <f t="shared" si="9"/>
+        <v>3.9843749999945999E-4</v>
       </c>
       <c r="K7" s="7">
-        <f t="shared" ref="K7:K20" si="11">AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;E$2,$B7:$F7)-E7</f>
-        <v>-7.9999999999991189E-3</v>
+        <f t="shared" si="10"/>
+        <v>-1.5937499999996163E-3</v>
       </c>
       <c r="L7" s="7">
-        <f t="shared" ref="L7:L20" si="12">AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;F$2,$B7:$F7)-F7</f>
-        <v>-1.3000000000000789E-2</v>
+        <f t="shared" si="11"/>
+        <v>-2.5898437500000426E-3</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7">
+        <f t="shared" si="1"/>
+        <v>3.984375000000373E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="6">
+        <f t="shared" si="2"/>
+        <v>5.0008789062499996</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="3"/>
+        <v>5.0000781249999999</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="4"/>
+        <v>5.0016796874999994</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="5"/>
+        <v>5.0032812499999997</v>
+      </c>
+      <c r="F8" s="6">
         <f t="shared" si="6"/>
-        <v>2.0000000000000462E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="6">
-        <f t="shared" si="0"/>
-        <v>4.9950000000000001</v>
-      </c>
-      <c r="C8" s="6">
-        <f t="shared" si="1"/>
-        <v>4.99</v>
-      </c>
-      <c r="D8" s="6">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E8" s="6">
-        <f t="shared" si="3"/>
-        <v>5.0099999999999989</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="4"/>
-        <v>5.0150000000000006</v>
+        <v>5.0040820312500003</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="7">
-        <f t="shared" si="8"/>
-        <v>8.7500000000000355E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.4013671875003908E-3</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" si="9"/>
-        <v>1.499999999999968E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.4023437500000355E-3</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" si="10"/>
-        <v>2.4999999999995026E-3</v>
+        <f t="shared" si="9"/>
+        <v>4.0039062500074607E-4</v>
       </c>
       <c r="K8" s="7">
-        <f t="shared" si="11"/>
-        <v>-9.9999999999988987E-3</v>
+        <f t="shared" si="10"/>
+        <v>-1.6015625000003197E-3</v>
       </c>
       <c r="L8" s="7">
-        <f t="shared" si="12"/>
-        <v>-1.6250000000001208E-2</v>
+        <f t="shared" si="11"/>
+        <v>-2.6025390625008527E-3</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7">
+        <f t="shared" si="1"/>
+        <v>4.0039062500003553E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="6">
+        <f t="shared" si="2"/>
+        <v>6.0012802734374997</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="3"/>
+        <v>6.0004804687500002</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="4"/>
+        <v>6.0020800781250001</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="5"/>
+        <v>6.0036796874999991</v>
+      </c>
+      <c r="F9" s="6">
         <f t="shared" si="6"/>
-        <v>2.5000000000000355E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="6">
-        <f t="shared" si="0"/>
-        <v>5.9939999999999998</v>
-      </c>
-      <c r="C9" s="6">
-        <f t="shared" si="1"/>
-        <v>5.9880000000000004</v>
-      </c>
-      <c r="D9" s="6">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="E9" s="6">
-        <f t="shared" si="3"/>
-        <v>6.0119999999999987</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="4"/>
-        <v>6.0180000000000007</v>
+        <v>6.0044794921874995</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="7">
-        <f t="shared" si="8"/>
-        <v>1.0500000000000398E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.3996582031250426E-3</v>
       </c>
       <c r="I9" s="7">
-        <f t="shared" si="9"/>
-        <v>1.7999999999999794E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.3994140624994387E-3</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" si="10"/>
-        <v>3.0000000000001137E-3</v>
+        <f t="shared" si="9"/>
+        <v>3.9990234374975842E-4</v>
       </c>
       <c r="K9" s="7">
-        <f t="shared" si="11"/>
-        <v>-1.1999999999998678E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.5996093749990337E-3</v>
       </c>
       <c r="L9" s="7">
-        <f t="shared" si="12"/>
-        <v>-1.9500000000000739E-2</v>
+        <f t="shared" si="11"/>
+        <v>-2.5993652343743179E-3</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7">
+        <f t="shared" si="1"/>
+        <v>3.9990234374993605E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" si="2"/>
+        <v>7.0016799316406244</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="3"/>
+        <v>7.0008798828124998</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="4"/>
+        <v>7.0024799804687499</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="5"/>
+        <v>7.0040800781249999</v>
+      </c>
+      <c r="F10" s="6">
         <f t="shared" si="6"/>
-        <v>3.0000000000000249E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="6">
-        <f t="shared" si="0"/>
-        <v>6.9929999999999994</v>
-      </c>
-      <c r="C10" s="6">
-        <f t="shared" si="1"/>
-        <v>6.9860000000000007</v>
-      </c>
-      <c r="D10" s="6">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="E10" s="6">
-        <f t="shared" si="3"/>
-        <v>7.0139999999999985</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="4"/>
-        <v>7.0210000000000008</v>
+        <v>7.0048801269531253</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="7">
-        <f t="shared" si="8"/>
-        <v>1.225000000000076E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000854492195458E-3</v>
       </c>
       <c r="I10" s="7">
-        <f t="shared" si="9"/>
-        <v>2.0999999999999019E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.4001464843745879E-3</v>
       </c>
       <c r="J10" s="7">
-        <f t="shared" si="10"/>
-        <v>3.4999999999998366E-3</v>
+        <f t="shared" si="9"/>
+        <v>4.0002441406272737E-4</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="11"/>
-        <v>-1.3999999999998458E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000976562500213E-3</v>
       </c>
       <c r="L10" s="7">
-        <f t="shared" si="12"/>
-        <v>-2.2750000000001158E-2</v>
+        <f t="shared" si="11"/>
+        <v>-2.6001586914068398E-3</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7">
+        <f>MAX(B10:F10)-MIN(B10:F10)</f>
+        <v>4.0002441406254974E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f t="shared" si="2"/>
+        <v>8.0020800170898436</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="3"/>
+        <v>8.0012800292968755</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="4"/>
+        <v>8.0028800048828117</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="5"/>
+        <v>8.0044799804687496</v>
+      </c>
+      <c r="F11" s="6">
         <f t="shared" si="6"/>
-        <v>3.5000000000000142E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f t="shared" si="0"/>
-        <v>7.9919999999999991</v>
-      </c>
-      <c r="C11" s="6">
-        <f t="shared" si="1"/>
-        <v>7.9840000000000009</v>
-      </c>
-      <c r="D11" s="6">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="E11" s="6">
-        <f t="shared" si="3"/>
-        <v>8.0159999999999982</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="4"/>
-        <v>8.0240000000000009</v>
+        <v>8.0052799682617177</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="7">
-        <f t="shared" si="8"/>
-        <v>1.4000000000001123E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.3999786376945877E-3</v>
       </c>
       <c r="I11" s="7">
-        <f t="shared" si="9"/>
-        <v>2.3999999999998245E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.3999633789060226E-3</v>
       </c>
       <c r="J11" s="7">
-        <f t="shared" si="10"/>
-        <v>3.9999999999995595E-3</v>
+        <f t="shared" si="9"/>
+        <v>3.9999389648492922E-4</v>
       </c>
       <c r="K11" s="7">
-        <f t="shared" si="11"/>
-        <v>-1.5999999999998238E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999755859379405E-3</v>
       </c>
       <c r="L11" s="7">
-        <f t="shared" si="12"/>
-        <v>-2.6000000000001577E-2</v>
+        <f t="shared" si="11"/>
+        <v>-2.5999603271475991E-3</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7">
+        <f t="shared" si="1"/>
+        <v>3.9999389648421868E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="6">
+        <f t="shared" si="2"/>
+        <v>9.0024799957275388</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="3"/>
+        <v>9.0016799926757827</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="4"/>
+        <v>9.0032799987792966</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="5"/>
+        <v>9.0048800048828124</v>
+      </c>
+      <c r="F12" s="6">
         <f t="shared" si="6"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="6">
-        <f t="shared" si="0"/>
-        <v>8.9909999999999997</v>
-      </c>
-      <c r="C12" s="6">
-        <f t="shared" si="1"/>
-        <v>8.9820000000000011</v>
-      </c>
-      <c r="D12" s="6">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="E12" s="6">
-        <f t="shared" si="3"/>
-        <v>9.0179999999999989</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="4"/>
-        <v>9.027000000000001</v>
+        <v>9.0056800079345702</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="7">
-        <f t="shared" si="8"/>
-        <v>1.5750000000000597E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000053405780477E-3</v>
       </c>
       <c r="I12" s="7">
-        <f t="shared" si="9"/>
-        <v>2.6999999999999247E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.4000091552718317E-3</v>
       </c>
       <c r="J12" s="7">
-        <f t="shared" si="10"/>
-        <v>4.5000000000001705E-3</v>
+        <f t="shared" si="9"/>
+        <v>4.0000152588071103E-4</v>
       </c>
       <c r="K12" s="7">
-        <f t="shared" si="11"/>
-        <v>-1.7999999999998906E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000061035139623E-3</v>
       </c>
       <c r="L12" s="7">
-        <f t="shared" si="12"/>
-        <v>-2.9250000000001108E-2</v>
+        <f t="shared" si="11"/>
+        <v>-2.600009918211299E-3</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7">
+        <f t="shared" si="1"/>
+        <v>4.0000152587875704E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="6">
+        <f t="shared" si="2"/>
+        <v>10.002880001068117</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="3"/>
+        <v>10.002080001831054</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="4"/>
+        <v>10.003680000305177</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="5"/>
+        <v>10.005279998779299</v>
+      </c>
+      <c r="F13" s="6">
         <f t="shared" si="6"/>
-        <v>4.4999999999999929E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="6">
-        <f t="shared" si="0"/>
-        <v>9.99</v>
-      </c>
-      <c r="C13" s="6">
-        <f t="shared" si="1"/>
-        <v>9.98</v>
-      </c>
-      <c r="D13" s="6">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="E13" s="6">
-        <f t="shared" si="3"/>
-        <v>10.02</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="4"/>
-        <v>10.030000000000001</v>
+        <v>10.006079998016359</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="7">
-        <f t="shared" si="8"/>
-        <v>1.7500000000000071E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.3999986648549623E-3</v>
       </c>
       <c r="I13" s="7">
-        <f t="shared" si="9"/>
-        <v>3.0000000000001137E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.3999977111852644E-3</v>
       </c>
       <c r="J13" s="7">
-        <f t="shared" si="10"/>
-        <v>4.9999999999990052E-3</v>
+        <f t="shared" si="9"/>
+        <v>3.9999961852998922E-4</v>
       </c>
       <c r="K13" s="7">
-        <f t="shared" si="11"/>
-        <v>-1.9999999999999574E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999984741217332E-3</v>
       </c>
       <c r="L13" s="7">
-        <f t="shared" si="12"/>
-        <v>-3.2500000000002416E-2</v>
+        <f t="shared" si="11"/>
+        <v>-2.5999975204467063E-3</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7">
+        <f t="shared" si="1"/>
+        <v>3.9999961853052213E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="6">
+        <f t="shared" si="2"/>
+        <v>11.003279999732973</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="3"/>
+        <v>11.002479999542238</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="4"/>
+        <v>11.004079999923707</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="5"/>
+        <v>11.005680000305178</v>
+      </c>
+      <c r="F14" s="6">
         <f t="shared" si="6"/>
-        <v>5.0000000000000711E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="6">
-        <f t="shared" si="0"/>
-        <v>10.989000000000001</v>
-      </c>
-      <c r="C14" s="6">
-        <f t="shared" si="1"/>
-        <v>10.978</v>
-      </c>
-      <c r="D14" s="6">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="E14" s="6">
-        <f t="shared" si="3"/>
-        <v>11.022</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="4"/>
-        <v>11.033000000000001</v>
+        <v>11.006480000495912</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="7">
-        <f t="shared" si="8"/>
-        <v>1.9249999999999545E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000003337866218E-3</v>
       </c>
       <c r="I14" s="7">
-        <f t="shared" si="9"/>
-        <v>3.3000000000001251E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.4000005722033535E-3</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" si="10"/>
-        <v>5.4999999999996163E-3</v>
+        <f t="shared" si="9"/>
+        <v>4.0000009536811376E-4</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="11"/>
-        <v>-2.2000000000000242E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000003814706787E-3</v>
       </c>
       <c r="L14" s="7">
-        <f t="shared" si="12"/>
-        <v>-3.5750000000001947E-2</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000006198891867E-3</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7">
+        <f t="shared" si="1"/>
+        <v>4.0000009536740322E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="6">
+        <f t="shared" si="2"/>
+        <v>12.00368000006676</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" si="3"/>
+        <v>12.002880000114441</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="4"/>
+        <v>12.004480000019075</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="5"/>
+        <v>12.006079999923708</v>
+      </c>
+      <c r="F15" s="6">
         <f t="shared" si="6"/>
-        <v>5.5000000000001492E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="6">
-        <f t="shared" si="0"/>
-        <v>11.988000000000001</v>
-      </c>
-      <c r="C15" s="6">
-        <f t="shared" si="1"/>
-        <v>11.975999999999999</v>
-      </c>
-      <c r="D15" s="6">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="E15" s="6">
-        <f t="shared" si="3"/>
-        <v>12.024000000000001</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="4"/>
-        <v>12.036000000000001</v>
+        <v>12.006879999876023</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="7">
-        <f t="shared" si="8"/>
-        <v>2.0999999999999019E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.3999999165523747E-3</v>
       </c>
       <c r="I15" s="7">
-        <f t="shared" si="9"/>
-        <v>3.6000000000001364E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.3999998569514958E-3</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="10"/>
-        <v>6.0000000000002274E-3</v>
+        <f t="shared" si="9"/>
+        <v>3.9999997615680627E-4</v>
       </c>
       <c r="K15" s="7">
-        <f t="shared" si="11"/>
-        <v>-2.4000000000000909E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999999046325541E-3</v>
       </c>
       <c r="L15" s="7">
-        <f t="shared" si="12"/>
-        <v>-3.9000000000001478E-2</v>
+        <f t="shared" si="11"/>
+        <v>-2.5999998450263462E-3</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7">
+        <f t="shared" si="1"/>
+        <v>3.9999997615822735E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="6">
+        <f t="shared" si="2"/>
+        <v>13.004079999983313</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" si="3"/>
+        <v>13.003279999971392</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="4"/>
+        <v>13.004879999995232</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="5"/>
+        <v>13.006480000019076</v>
+      </c>
+      <c r="F16" s="6">
         <f t="shared" si="6"/>
-        <v>6.0000000000002274E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="B16" s="6">
-        <f t="shared" si="0"/>
-        <v>12.987000000000002</v>
-      </c>
-      <c r="C16" s="6">
-        <f t="shared" si="1"/>
-        <v>12.973999999999998</v>
-      </c>
-      <c r="D16" s="6">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="E16" s="6">
-        <f t="shared" si="3"/>
-        <v>13.026000000000002</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="4"/>
-        <v>13.039000000000001</v>
+        <v>13.007280000030997</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="7">
-        <f t="shared" si="8"/>
-        <v>2.2749999999998494E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000208600483E-3</v>
       </c>
       <c r="I16" s="7">
-        <f t="shared" si="9"/>
-        <v>3.9000000000003254E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.4000000357613516E-3</v>
       </c>
       <c r="J16" s="7">
-        <f t="shared" si="10"/>
-        <v>6.5000000000008384E-3</v>
+        <f t="shared" si="9"/>
+        <v>4.0000000596229768E-4</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" si="11"/>
-        <v>-2.6000000000001577E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000000238420853E-3</v>
       </c>
       <c r="L16" s="7">
-        <f t="shared" si="12"/>
-        <v>-4.2250000000001009E-2</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000387433886E-3</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7">
-        <f t="shared" si="6"/>
-        <v>6.5000000000003055E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000596052132E-3</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="B17" s="6">
-        <f t="shared" si="0"/>
-        <v>13.986000000000002</v>
+        <f t="shared" si="2"/>
+        <v>14.004480000004174</v>
       </c>
       <c r="C17" s="6">
-        <f t="shared" si="1"/>
-        <v>13.971999999999998</v>
+        <f t="shared" si="3"/>
+        <v>14.003680000007153</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>14.005280000001195</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="3"/>
-        <v>14.028000000000002</v>
+        <f t="shared" si="5"/>
+        <v>14.006879999995235</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="4"/>
-        <v>14.042000000000002</v>
+        <f t="shared" si="6"/>
+        <v>14.007679999992254</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="7">
-        <f t="shared" si="8"/>
-        <v>2.4499999999997968E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.3999999947849062E-3</v>
       </c>
       <c r="I17" s="7">
-        <f t="shared" si="9"/>
-        <v>4.2000000000005144E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.3999999910628844E-3</v>
       </c>
       <c r="J17" s="7">
-        <f t="shared" si="10"/>
-        <v>7.0000000000014495E-3</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999851048074E-4</v>
       </c>
       <c r="K17" s="7">
-        <f t="shared" si="11"/>
-        <v>-2.8000000000002245E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999999940401466E-3</v>
       </c>
       <c r="L17" s="7">
-        <f t="shared" si="12"/>
-        <v>-4.550000000000054E-2</v>
+        <f t="shared" si="11"/>
+        <v>-2.5999999903145721E-3</v>
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7">
-        <f t="shared" si="6"/>
-        <v>7.0000000000003837E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999851012547E-3</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="B18" s="6">
-        <f t="shared" si="0"/>
-        <v>14.985000000000003</v>
+        <f t="shared" si="2"/>
+        <v>15.004879999998959</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" si="1"/>
-        <v>14.969999999999997</v>
+        <f t="shared" si="3"/>
+        <v>15.004079999998215</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>15.005679999999705</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="3"/>
-        <v>15.030000000000003</v>
+        <f t="shared" si="5"/>
+        <v>15.007280000001195</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="4"/>
-        <v>15.045000000000002</v>
+        <f t="shared" si="6"/>
+        <v>15.008080000001939</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="7">
-        <f t="shared" si="8"/>
-        <v>2.6249999999997442E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000013041358E-3</v>
       </c>
       <c r="I18" s="7">
-        <f t="shared" si="9"/>
-        <v>4.5000000000005258E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.4000000022343926E-3</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="10"/>
-        <v>7.5000000000002842E-3</v>
+        <f t="shared" si="9"/>
+        <v>4.000000003721027E-4</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" si="11"/>
-        <v>-3.0000000000002913E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000000014901872E-3</v>
       </c>
       <c r="L18" s="7">
-        <f t="shared" si="12"/>
-        <v>-4.8750000000001847E-2</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000024204439E-3</v>
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7">
-        <f t="shared" si="6"/>
-        <v>7.5000000000004619E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000037245798E-3</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="B19" s="6">
-        <f t="shared" si="0"/>
-        <v>15.984000000000004</v>
+        <f t="shared" si="2"/>
+        <v>16.005280000000262</v>
       </c>
       <c r="C19" s="6">
-        <f t="shared" si="1"/>
-        <v>15.967999999999996</v>
+        <f t="shared" si="3"/>
+        <v>16.004480000000449</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>16.006080000000075</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" si="3"/>
-        <v>16.032000000000004</v>
+        <f t="shared" si="5"/>
+        <v>16.007679999999706</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="4"/>
-        <v>16.048000000000002</v>
+        <f t="shared" si="6"/>
+        <v>16.008479999999519</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="7">
-        <f t="shared" si="8"/>
-        <v>2.7999999999996916E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.399999999676993E-3</v>
       </c>
       <c r="I19" s="7">
-        <f t="shared" si="9"/>
-        <v>4.8000000000005372E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.399999999443736E-3</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="10"/>
-        <v>8.0000000000026716E-3</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999991024993E-4</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="11"/>
-        <v>-3.2000000000003581E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999999996303416E-3</v>
       </c>
       <c r="L19" s="7">
-        <f t="shared" si="12"/>
-        <v>-5.2000000000001378E-2</v>
+        <f t="shared" si="11"/>
+        <v>-2.5999999993970846E-3</v>
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7">
-        <f t="shared" si="6"/>
-        <v>8.00000000000054E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999990705248E-3</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="B20" s="6">
-        <f t="shared" si="0"/>
-        <v>16.983000000000004</v>
+        <f t="shared" si="2"/>
+        <v>17.005679999999938</v>
       </c>
       <c r="C20" s="6">
-        <f t="shared" si="1"/>
-        <v>16.965999999999994</v>
+        <f t="shared" si="3"/>
+        <v>17.004879999999893</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="2"/>
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>17.006479999999986</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="3"/>
-        <v>17.034000000000002</v>
+        <f t="shared" si="5"/>
+        <v>17.008080000000074</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="4"/>
-        <v>17.051000000000002</v>
+        <f t="shared" si="6"/>
+        <v>17.008880000000122</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="7">
-        <f t="shared" si="8"/>
-        <v>2.974999999999639E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000820023E-3</v>
       </c>
       <c r="I20" s="7">
-        <f t="shared" si="9"/>
-        <v>5.1000000000009038E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.4000000001365152E-3</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" si="10"/>
-        <v>8.5000000000015064E-3</v>
+        <f t="shared" si="9"/>
+        <v>4.0000000002038405E-4</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="11"/>
-        <v>-3.4000000000002473E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000000000921943E-3</v>
       </c>
       <c r="L20" s="7">
-        <f t="shared" si="12"/>
-        <v>-5.5250000000000909E-2</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000001502599E-3</v>
       </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7">
-        <f t="shared" si="6"/>
-        <v>8.5000000000007958E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000002287095E-3</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="B21" s="6">
-        <f t="shared" si="0"/>
-        <v>17.982000000000003</v>
+        <f t="shared" si="2"/>
+        <v>18.006080000000019</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" si="1"/>
-        <v>17.963999999999995</v>
+        <f t="shared" si="3"/>
+        <v>18.005280000000031</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>18.006880000000006</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="3"/>
-        <v>18.036000000000001</v>
+        <f t="shared" si="5"/>
+        <v>18.008479999999981</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="4"/>
-        <v>18.054000000000002</v>
+        <f t="shared" si="6"/>
+        <v>18.009279999999972</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="7">
-        <f t="shared" ref="H21:H29" si="13">AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;B$2,$B21:$F21)-B21</f>
-        <v>3.1499999999997641E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.3999999999789736E-3</v>
       </c>
       <c r="I21" s="7">
-        <f t="shared" ref="I21:I29" si="14">AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;C$2,$B21:$F21)-C21</f>
-        <v>5.4000000000005599E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.3999999999624322E-3</v>
       </c>
       <c r="J21" s="7">
-        <f t="shared" ref="J21:J29" si="15">AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;D$2,$B21:$F21)-D21</f>
-        <v>9.0000000000003411E-3</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999551505E-4</v>
       </c>
       <c r="K21" s="7">
-        <f t="shared" ref="K21:K29" si="16">AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;E$2,$B21:$F21)-E21</f>
-        <v>-3.6000000000001364E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999999999714021E-3</v>
       </c>
       <c r="L21" s="7">
-        <f t="shared" ref="L21:L29" si="17">AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;F$2,$B21:$F21)-F21</f>
-        <v>-5.8500000000002217E-2</v>
+        <f t="shared" si="11"/>
+        <v>-2.5999999999619661E-3</v>
       </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7">
-        <f t="shared" si="6"/>
-        <v>9.0000000000006963E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999409397E-3</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="B22" s="6">
-        <f t="shared" si="0"/>
-        <v>18.981000000000002</v>
+        <f t="shared" si="2"/>
+        <v>19.006479999999996</v>
       </c>
       <c r="C22" s="6">
-        <f t="shared" si="1"/>
-        <v>18.961999999999996</v>
+        <f t="shared" si="3"/>
+        <v>19.005679999999995</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>19.007280000000002</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" si="3"/>
-        <v>19.038</v>
+        <f t="shared" si="5"/>
+        <v>19.008880000000008</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="4"/>
-        <v>19.057000000000002</v>
+        <f t="shared" si="6"/>
+        <v>19.00968000000001</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="7">
-        <f t="shared" si="13"/>
-        <v>3.3249999999998892E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I22" s="7">
-        <f t="shared" si="14"/>
-        <v>5.7000000000005713E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.4000000000121702E-3</v>
       </c>
       <c r="J22" s="7">
-        <f t="shared" si="15"/>
-        <v>9.4999999999991758E-3</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999906777E-4</v>
       </c>
       <c r="K22" s="7">
-        <f t="shared" si="16"/>
-        <v>-3.8000000000000256E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000000000069292E-3</v>
       </c>
       <c r="L22" s="7">
-        <f t="shared" si="17"/>
-        <v>-6.1750000000003524E-2</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000081513E-3</v>
       </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7">
-        <f t="shared" si="6"/>
-        <v>9.5000000000005969E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000000155467E-3</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="B23" s="6">
-        <f t="shared" si="0"/>
-        <v>19.98</v>
+        <f t="shared" si="2"/>
+        <v>20.006879999999999</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" si="1"/>
-        <v>19.959999999999997</v>
+        <f t="shared" si="3"/>
+        <v>20.006080000000008</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>20.007680000000001</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="3"/>
-        <v>20.04</v>
+        <f t="shared" si="5"/>
+        <v>20.00928</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="4"/>
-        <v>20.060000000000002</v>
+        <f t="shared" si="6"/>
+        <v>20.010080000000002</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="7">
-        <f t="shared" si="13"/>
-        <v>3.5000000000000142E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="14"/>
-        <v>6.0000000000005826E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.3999999999944066E-3</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="15"/>
-        <v>9.9999999999980105E-3</v>
+        <f t="shared" si="9"/>
+        <v>4.0000000000262048E-4</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" si="16"/>
-        <v>-3.9999999999999147E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999999999998238E-3</v>
       </c>
       <c r="L23" s="7">
-        <f t="shared" si="17"/>
-        <v>-6.5000000000004832E-2</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000497</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999942304E-3</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="B24" s="6">
-        <f t="shared" si="0"/>
-        <v>20.978999999999999</v>
+        <f t="shared" si="2"/>
+        <v>21.007280000000002</v>
       </c>
       <c r="C24" s="6">
-        <f t="shared" si="1"/>
-        <v>20.957999999999998</v>
+        <f t="shared" si="3"/>
+        <v>21.006480000000003</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <f t="shared" si="4"/>
+        <v>21.008080000000003</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" si="3"/>
-        <v>21.041999999999998</v>
+        <f t="shared" si="5"/>
+        <v>21.009679999999999</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="4"/>
-        <v>21.063000000000002</v>
+        <f t="shared" si="6"/>
+        <v>21.010480000000001</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="7">
-        <f t="shared" si="13"/>
-        <v>3.6750000000001393E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000002899E-3</v>
       </c>
       <c r="I24" s="7">
-        <f t="shared" si="14"/>
-        <v>6.3000000000002387E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.3999999999979593E-3</v>
       </c>
       <c r="J24" s="7">
-        <f t="shared" si="15"/>
-        <v>1.0500000000000398E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999906777E-4</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" si="16"/>
-        <v>-4.1999999999998039E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L24" s="7">
-        <f t="shared" si="17"/>
-        <v>-6.8250000000002586E-2</v>
+        <f t="shared" si="11"/>
+        <v>-2.5999999999974932E-3</v>
       </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7">
-        <f t="shared" si="6"/>
-        <v>0.10500000000000398</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999977831E-3</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="B25" s="6">
-        <f t="shared" si="0"/>
-        <v>21.977999999999998</v>
+        <f t="shared" si="2"/>
+        <v>22.007680000000001</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" si="1"/>
-        <v>21.956</v>
+        <f t="shared" si="3"/>
+        <v>22.006880000000002</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <f t="shared" si="4"/>
+        <v>22.008480000000002</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" si="3"/>
-        <v>22.043999999999997</v>
+        <f t="shared" si="5"/>
+        <v>22.010080000000002</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="4"/>
-        <v>22.066000000000003</v>
+        <f t="shared" si="6"/>
+        <v>22.010880000000004</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="7">
-        <f t="shared" si="13"/>
-        <v>3.8500000000002643E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000002899E-3</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="14"/>
-        <v>6.5999999999998948E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.3999999999979593E-3</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="15"/>
-        <v>1.0999999999999233E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999906777E-4</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" si="16"/>
-        <v>-4.399999999999693E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999999999998238E-3</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" si="17"/>
-        <v>-7.1500000000003894E-2</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7">
-        <f t="shared" si="6"/>
-        <v>0.11000000000000298</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000000013358E-3</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
       <c r="B26" s="6">
-        <f t="shared" si="0"/>
-        <v>22.976999999999997</v>
+        <f t="shared" si="2"/>
+        <v>23.00808</v>
       </c>
       <c r="C26" s="6">
-        <f t="shared" si="1"/>
-        <v>22.954000000000001</v>
+        <f t="shared" si="3"/>
+        <v>23.007280000000002</v>
       </c>
       <c r="D26" s="6">
-        <f t="shared" si="2"/>
-        <v>23</v>
+        <f t="shared" si="4"/>
+        <v>23.008880000000001</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" si="3"/>
-        <v>23.045999999999996</v>
+        <f t="shared" si="5"/>
+        <v>23.010480000000001</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="4"/>
-        <v>23.069000000000003</v>
+        <f t="shared" si="6"/>
+        <v>23.011280000000003</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="7">
-        <f t="shared" si="13"/>
-        <v>4.0250000000003894E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000002899E-3</v>
       </c>
       <c r="I26" s="7">
-        <f t="shared" si="14"/>
-        <v>6.8999999999999062E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.3999999999979593E-3</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" si="15"/>
-        <v>1.1499999999998067E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999906777E-4</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="16"/>
-        <v>-4.5999999999995822E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999999999998238E-3</v>
       </c>
       <c r="L26" s="7">
-        <f t="shared" si="17"/>
-        <v>-7.4750000000005201E-2</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7">
-        <f t="shared" si="6"/>
-        <v>0.11500000000000199</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000000013358E-3</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="B27" s="6">
-        <f t="shared" si="0"/>
-        <v>23.975999999999996</v>
+        <f t="shared" si="2"/>
+        <v>24.008479999999999</v>
       </c>
       <c r="C27" s="6">
-        <f t="shared" si="1"/>
-        <v>23.952000000000002</v>
+        <f t="shared" si="3"/>
+        <v>24.007680000000001</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <f t="shared" si="4"/>
+        <v>24.00928</v>
       </c>
       <c r="E27" s="6">
-        <f t="shared" si="3"/>
-        <v>24.047999999999995</v>
+        <f t="shared" si="5"/>
+        <v>24.01088</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="4"/>
-        <v>24.072000000000003</v>
+        <f t="shared" si="6"/>
+        <v>24.011680000000002</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="7">
-        <f t="shared" si="13"/>
-        <v>4.2000000000005144E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000002899E-3</v>
       </c>
       <c r="I27" s="7">
-        <f t="shared" si="14"/>
-        <v>7.1999999999999176E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.3999999999979593E-3</v>
       </c>
       <c r="J27" s="7">
-        <f t="shared" si="15"/>
-        <v>1.2000000000000455E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999906777E-4</v>
       </c>
       <c r="K27" s="7">
-        <f t="shared" si="16"/>
-        <v>-4.7999999999994714E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999999999998238E-3</v>
       </c>
       <c r="L27" s="7">
-        <f t="shared" si="17"/>
-        <v>-7.8000000000002956E-2</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M27" s="7"/>
       <c r="N27" s="7">
-        <f t="shared" si="6"/>
-        <v>0.12000000000000099</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000000013358E-3</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="B28" s="6">
-        <f t="shared" si="0"/>
-        <v>24.974999999999994</v>
+        <f t="shared" si="2"/>
+        <v>25.008879999999998</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" si="1"/>
-        <v>24.950000000000003</v>
+        <f t="shared" si="3"/>
+        <v>25.00808</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <f t="shared" si="4"/>
+        <v>25.009679999999999</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="3"/>
-        <v>25.049999999999994</v>
+        <f t="shared" si="5"/>
+        <v>25.011279999999999</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="4"/>
-        <v>25.075000000000003</v>
+        <f t="shared" si="6"/>
+        <v>25.012080000000001</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="7">
-        <f t="shared" si="13"/>
-        <v>4.3750000000006395E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000002899E-3</v>
       </c>
       <c r="I28" s="7">
-        <f t="shared" si="14"/>
-        <v>7.4999999999995737E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.3999999999979593E-3</v>
       </c>
       <c r="J28" s="7">
-        <f t="shared" si="15"/>
-        <v>1.2499999999999289E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999906777E-4</v>
       </c>
       <c r="K28" s="7">
-        <f t="shared" si="16"/>
-        <v>-4.9999999999993605E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999999999998238E-3</v>
       </c>
       <c r="L28" s="7">
-        <f t="shared" si="17"/>
-        <v>-8.1250000000004263E-2</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M28" s="7"/>
       <c r="N28" s="7">
-        <f t="shared" si="6"/>
-        <v>0.125</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000000013358E-3</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>26</v>
       </c>
       <c r="B29" s="6">
-        <f t="shared" si="0"/>
-        <v>25.973999999999993</v>
+        <f t="shared" si="2"/>
+        <v>26.009279999999997</v>
       </c>
       <c r="C29" s="6">
-        <f t="shared" si="1"/>
-        <v>25.948000000000004</v>
+        <f t="shared" si="3"/>
+        <v>26.008479999999999</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <f t="shared" si="4"/>
+        <v>26.010079999999999</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" si="3"/>
-        <v>26.051999999999992</v>
+        <f t="shared" si="5"/>
+        <v>26.011679999999998</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="4"/>
-        <v>26.078000000000003</v>
+        <f t="shared" si="6"/>
+        <v>26.01248</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="7">
-        <f t="shared" si="13"/>
-        <v>4.5500000000007645E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000002899E-3</v>
       </c>
       <c r="I29" s="7">
-        <f t="shared" si="14"/>
-        <v>7.7999999999992298E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.3999999999979593E-3</v>
       </c>
       <c r="J29" s="7">
-        <f t="shared" si="15"/>
-        <v>1.2999999999998124E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999906777E-4</v>
       </c>
       <c r="K29" s="7">
-        <f t="shared" si="16"/>
-        <v>-5.1999999999992497E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999999999998238E-3</v>
       </c>
       <c r="L29" s="7">
-        <f t="shared" si="17"/>
-        <v>-8.4500000000005571E-2</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M29" s="7"/>
       <c r="N29" s="7">
-        <f t="shared" si="6"/>
-        <v>0.12999999999999901</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000000013358E-3</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>27</v>
       </c>
       <c r="B30" s="6">
-        <f t="shared" si="0"/>
-        <v>26.972999999999992</v>
+        <f t="shared" si="2"/>
+        <v>27.009679999999996</v>
       </c>
       <c r="C30" s="6">
-        <f t="shared" si="1"/>
-        <v>26.946000000000005</v>
+        <f t="shared" si="3"/>
+        <v>27.008879999999998</v>
       </c>
       <c r="D30" s="6">
-        <f t="shared" si="2"/>
-        <v>27</v>
+        <f t="shared" si="4"/>
+        <v>27.010479999999998</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" si="3"/>
-        <v>27.053999999999991</v>
+        <f t="shared" si="5"/>
+        <v>27.012079999999997</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="4"/>
-        <v>27.081000000000003</v>
+        <f t="shared" si="6"/>
+        <v>27.012879999999999</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="7">
-        <f t="shared" ref="H30:H88" si="18">AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;B$2,$B30:$F30)-B30</f>
-        <v>4.7250000000008896E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000002899E-3</v>
       </c>
       <c r="I30" s="7">
-        <f t="shared" ref="I30:I88" si="19">AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;C$2,$B30:$F30)-C30</f>
-        <v>8.0999999999992411E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.3999999999979593E-3</v>
       </c>
       <c r="J30" s="7">
-        <f t="shared" ref="J30:J88" si="20">AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;D$2,$B30:$F30)-D30</f>
-        <v>1.3499999999996959E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999906777E-4</v>
       </c>
       <c r="K30" s="7">
-        <f t="shared" ref="K30:K88" si="21">AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;E$2,$B30:$F30)-E30</f>
-        <v>-5.3999999999991388E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999999999998238E-3</v>
       </c>
       <c r="L30" s="7">
-        <f t="shared" ref="L30:L88" si="22">AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;F$2,$B30:$F30)-F30</f>
-        <v>-8.7750000000006878E-2</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M30" s="7"/>
       <c r="N30" s="7">
-        <f t="shared" si="6"/>
-        <v>0.13499999999999801</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000000013358E-3</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="B31" s="6">
-        <f t="shared" si="0"/>
-        <v>27.971999999999991</v>
+        <f t="shared" si="2"/>
+        <v>28.010079999999995</v>
       </c>
       <c r="C31" s="6">
-        <f t="shared" si="1"/>
-        <v>27.944000000000006</v>
+        <f t="shared" si="3"/>
+        <v>28.009279999999997</v>
       </c>
       <c r="D31" s="6">
-        <f t="shared" si="2"/>
-        <v>28</v>
+        <f t="shared" si="4"/>
+        <v>28.010879999999997</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" si="3"/>
-        <v>28.05599999999999</v>
+        <f t="shared" si="5"/>
+        <v>28.012479999999996</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="4"/>
-        <v>28.084000000000003</v>
+        <f t="shared" si="6"/>
+        <v>28.013279999999998</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="7">
-        <f t="shared" si="18"/>
-        <v>4.9000000000010147E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000002899E-3</v>
       </c>
       <c r="I31" s="7">
-        <f t="shared" si="19"/>
-        <v>8.3999999999992525E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.3999999999979593E-3</v>
       </c>
       <c r="J31" s="7">
-        <f t="shared" si="20"/>
-        <v>1.3999999999995794E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999906777E-4</v>
       </c>
       <c r="K31" s="7">
-        <f t="shared" si="21"/>
-        <v>-5.599999999999028E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999999999998238E-3</v>
       </c>
       <c r="L31" s="7">
-        <f t="shared" si="22"/>
-        <v>-9.1000000000008185E-2</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M31" s="7"/>
       <c r="N31" s="7">
-        <f t="shared" si="6"/>
-        <v>0.13999999999999702</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000000013358E-3</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>29</v>
       </c>
       <c r="B32" s="6">
-        <f t="shared" si="0"/>
-        <v>28.970999999999989</v>
+        <f t="shared" si="2"/>
+        <v>29.010479999999994</v>
       </c>
       <c r="C32" s="6">
-        <f t="shared" si="1"/>
-        <v>28.942000000000007</v>
+        <f t="shared" si="3"/>
+        <v>29.009679999999996</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" si="2"/>
-        <v>29</v>
+        <f t="shared" si="4"/>
+        <v>29.011279999999996</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" si="3"/>
-        <v>29.057999999999989</v>
+        <f t="shared" si="5"/>
+        <v>29.012879999999996</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="4"/>
-        <v>29.087000000000003</v>
+        <f t="shared" si="6"/>
+        <v>29.013679999999997</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="7">
-        <f t="shared" si="18"/>
-        <v>5.0750000000011397E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000002899E-3</v>
       </c>
       <c r="I32" s="7">
-        <f t="shared" si="19"/>
-        <v>8.6999999999989086E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.3999999999979593E-3</v>
       </c>
       <c r="J32" s="7">
-        <f t="shared" si="20"/>
-        <v>1.4499999999998181E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999906777E-4</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="21"/>
-        <v>-5.7999999999989171E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999999999998238E-3</v>
       </c>
       <c r="L32" s="7">
-        <f t="shared" si="22"/>
-        <v>-9.425000000000594E-2</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M32" s="7"/>
       <c r="N32" s="7">
-        <f t="shared" si="6"/>
-        <v>0.14499999999999602</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000000013358E-3</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="B33" s="6">
-        <f t="shared" si="0"/>
-        <v>29.969999999999988</v>
+        <f t="shared" si="2"/>
+        <v>30.010879999999993</v>
       </c>
       <c r="C33" s="6">
-        <f t="shared" si="1"/>
-        <v>29.940000000000008</v>
+        <f t="shared" si="3"/>
+        <v>30.010079999999995</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>30.011679999999995</v>
       </c>
       <c r="E33" s="6">
-        <f t="shared" si="3"/>
-        <v>30.059999999999988</v>
+        <f t="shared" si="5"/>
+        <v>30.013279999999995</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="4"/>
-        <v>30.090000000000003</v>
+        <f t="shared" si="6"/>
+        <v>30.014079999999996</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="7">
-        <f t="shared" si="18"/>
-        <v>5.2500000000012648E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000002899E-3</v>
       </c>
       <c r="I33" s="7">
-        <f t="shared" si="19"/>
-        <v>8.9999999999985647E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.3999999999979593E-3</v>
       </c>
       <c r="J33" s="7">
-        <f t="shared" si="20"/>
-        <v>1.4999999999997016E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999906777E-4</v>
       </c>
       <c r="K33" s="7">
-        <f t="shared" si="21"/>
-        <v>-5.9999999999988063E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999999999998238E-3</v>
       </c>
       <c r="L33" s="7">
-        <f t="shared" si="22"/>
-        <v>-9.7500000000007248E-2</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M33" s="7"/>
       <c r="N33" s="7">
-        <f t="shared" si="6"/>
-        <v>0.14999999999999503</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000000013358E-3</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>31</v>
       </c>
       <c r="B34" s="6">
-        <f t="shared" si="0"/>
-        <v>30.968999999999987</v>
+        <f t="shared" si="2"/>
+        <v>31.011279999999992</v>
       </c>
       <c r="C34" s="6">
-        <f t="shared" si="1"/>
-        <v>30.938000000000009</v>
+        <f t="shared" si="3"/>
+        <v>31.010479999999994</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" si="2"/>
-        <v>31</v>
+        <f t="shared" si="4"/>
+        <v>31.012079999999994</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" si="3"/>
-        <v>31.061999999999987</v>
+        <f t="shared" si="5"/>
+        <v>31.013679999999994</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="4"/>
-        <v>31.093000000000004</v>
+        <f t="shared" si="6"/>
+        <v>31.014479999999995</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="7">
-        <f t="shared" si="18"/>
-        <v>5.4250000000013898E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000002899E-3</v>
       </c>
       <c r="I34" s="7">
-        <f t="shared" si="19"/>
-        <v>9.2999999999985761E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.3999999999979593E-3</v>
       </c>
       <c r="J34" s="7">
-        <f t="shared" si="20"/>
-        <v>1.549999999999585E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999906777E-4</v>
       </c>
       <c r="K34" s="7">
-        <f t="shared" si="21"/>
-        <v>-6.1999999999986954E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999999999998238E-3</v>
       </c>
       <c r="L34" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.10075000000000855</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M34" s="7"/>
       <c r="N34" s="7">
-        <f t="shared" si="6"/>
-        <v>0.15499999999999403</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000000013358E-3</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="B35" s="6">
-        <f t="shared" si="0"/>
-        <v>31.967999999999986</v>
+        <f t="shared" si="2"/>
+        <v>32.011679999999991</v>
       </c>
       <c r="C35" s="6">
-        <f t="shared" si="1"/>
-        <v>31.936000000000011</v>
+        <f t="shared" si="3"/>
+        <v>32.010879999999993</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="2"/>
-        <v>32</v>
+        <f t="shared" si="4"/>
+        <v>32.012479999999996</v>
       </c>
       <c r="E35" s="6">
-        <f t="shared" si="3"/>
-        <v>32.063999999999986</v>
+        <f t="shared" si="5"/>
+        <v>32.014079999999993</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="4"/>
-        <v>32.096000000000004</v>
+        <f t="shared" si="6"/>
+        <v>32.014879999999991</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="7">
-        <f t="shared" si="18"/>
-        <v>5.6000000000015149E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I35" s="7">
-        <f t="shared" si="19"/>
-        <v>9.5999999999985874E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.400000000001512E-3</v>
       </c>
       <c r="J35" s="7">
-        <f t="shared" si="20"/>
-        <v>1.5999999999998238E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999906777E-4</v>
       </c>
       <c r="K35" s="7">
-        <f t="shared" si="21"/>
-        <v>-6.3999999999985846E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L35" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.10400000000000631</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M35" s="7"/>
       <c r="N35" s="7">
-        <f t="shared" si="6"/>
-        <v>0.15999999999999304</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999977831E-3</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>33</v>
       </c>
       <c r="B36" s="6">
-        <f t="shared" si="0"/>
-        <v>32.966999999999985</v>
+        <f t="shared" si="2"/>
+        <v>33.012079999999997</v>
       </c>
       <c r="C36" s="6">
-        <f t="shared" si="1"/>
-        <v>32.934000000000012</v>
+        <f t="shared" si="3"/>
+        <v>33.011279999999992</v>
       </c>
       <c r="D36" s="6">
-        <f t="shared" si="2"/>
-        <v>33</v>
+        <f t="shared" si="4"/>
+        <v>33.012879999999996</v>
       </c>
       <c r="E36" s="6">
-        <f t="shared" si="3"/>
-        <v>33.065999999999988</v>
+        <f t="shared" si="5"/>
+        <v>33.014479999999999</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" si="4"/>
-        <v>33.099000000000004</v>
+        <f t="shared" si="6"/>
+        <v>33.01527999999999</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="7">
-        <f t="shared" si="18"/>
-        <v>5.7750000000012847E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.3999999999967372E-3</v>
       </c>
       <c r="I36" s="7">
-        <f t="shared" si="19"/>
-        <v>9.8999999999982435E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.400000000001512E-3</v>
       </c>
       <c r="J36" s="7">
-        <f t="shared" si="20"/>
-        <v>1.649999999999352E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999906777E-4</v>
       </c>
       <c r="K36" s="7">
-        <f t="shared" si="21"/>
-        <v>-6.599999999998829E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000000000033765E-3</v>
       </c>
       <c r="L36" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.10725000000000762</v>
+        <f t="shared" si="11"/>
+        <v>-2.5999999999939405E-3</v>
       </c>
       <c r="M36" s="7"/>
       <c r="N36" s="7">
-        <f t="shared" si="6"/>
-        <v>0.16499999999999204</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999977831E-3</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>34</v>
       </c>
       <c r="B37" s="6">
-        <f t="shared" ref="B37:B68" si="23">B36+B$3+H36*correction_enabled+1</f>
-        <v>33.965999999999987</v>
+        <f t="shared" ref="B37:B68" si="13">B36+B$3+H36*correction_enabled+1</f>
+        <v>34.012479999999996</v>
       </c>
       <c r="C37" s="6">
-        <f t="shared" ref="C37:C68" si="24">C36+C$3+I36*correction_enabled+1</f>
-        <v>33.932000000000009</v>
+        <f t="shared" ref="C37:C68" si="14">C36+C$3+I36*correction_enabled+1</f>
+        <v>34.011679999999991</v>
       </c>
       <c r="D37" s="6">
-        <f t="shared" ref="D37:D68" si="25">D36+D$3+J36*correction_enabled+1</f>
-        <v>34</v>
+        <f t="shared" ref="D37:D68" si="15">D36+D$3+J36*correction_enabled+1</f>
+        <v>34.013279999999995</v>
       </c>
       <c r="E37" s="6">
-        <f t="shared" ref="E37:E68" si="26">E36+E$3+K36*correction_enabled+1</f>
-        <v>34.067999999999991</v>
+        <f t="shared" ref="E37:E68" si="16">E36+E$3+K36*correction_enabled+1</f>
+        <v>34.014879999999998</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" ref="F37:F68" si="27">F36+F$3+L36*correction_enabled+1</f>
-        <v>34.102000000000004</v>
+        <f t="shared" ref="F37:F68" si="17">F36+F$3+L36*correction_enabled+1</f>
+        <v>34.015679999999996</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="7">
-        <f t="shared" si="18"/>
-        <v>5.9500000000014097E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I37" s="7">
-        <f t="shared" si="19"/>
-        <v>0.10199999999998255</v>
+        <f t="shared" si="8"/>
+        <v>2.4000000000086175E-3</v>
       </c>
       <c r="J37" s="7">
-        <f t="shared" si="20"/>
-        <v>1.6999999999995907E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.000000000061732E-4</v>
       </c>
       <c r="K37" s="7">
-        <f t="shared" si="21"/>
-        <v>-6.7999999999990735E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000000000033765E-3</v>
       </c>
       <c r="L37" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.11050000000000892</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M37" s="7"/>
       <c r="N37" s="7">
-        <f t="shared" si="6"/>
-        <v>0.1699999999999946</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000000048885E-3</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="B38" s="6">
-        <f t="shared" si="23"/>
-        <v>34.964999999999989</v>
+        <f t="shared" si="13"/>
+        <v>35.012880000000003</v>
       </c>
       <c r="C38" s="6">
-        <f t="shared" si="24"/>
-        <v>34.930000000000007</v>
+        <f t="shared" si="14"/>
+        <v>35.012079999999997</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="25"/>
-        <v>35</v>
+        <f t="shared" si="15"/>
+        <v>35.013680000000001</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" si="26"/>
-        <v>35.069999999999993</v>
+        <f t="shared" si="16"/>
+        <v>35.015279999999997</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" si="27"/>
-        <v>35.105000000000004</v>
+        <f t="shared" si="17"/>
+        <v>35.016079999999995</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="7">
-        <f t="shared" si="18"/>
-        <v>6.1250000000015348E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.3999999999896318E-3</v>
       </c>
       <c r="I38" s="7">
-        <f t="shared" si="19"/>
-        <v>0.10499999999998977</v>
+        <f t="shared" si="8"/>
+        <v>2.400000000001512E-3</v>
       </c>
       <c r="J38" s="7">
-        <f t="shared" si="20"/>
-        <v>1.7499999999998295E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999196234E-4</v>
       </c>
       <c r="K38" s="7">
-        <f t="shared" si="21"/>
-        <v>-6.9999999999993179E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000000000033765E-3</v>
       </c>
       <c r="L38" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.11375000000001023</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M38" s="7"/>
       <c r="N38" s="7">
-        <f t="shared" si="6"/>
-        <v>0.17499999999999716</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999977831E-3</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>36</v>
       </c>
       <c r="B39" s="6">
-        <f t="shared" si="23"/>
-        <v>35.963999999999992</v>
+        <f t="shared" si="13"/>
+        <v>36.013279999999995</v>
       </c>
       <c r="C39" s="6">
-        <f t="shared" si="24"/>
-        <v>35.928000000000004</v>
+        <f t="shared" si="14"/>
+        <v>36.012479999999996</v>
       </c>
       <c r="D39" s="6">
-        <f t="shared" si="25"/>
-        <v>36</v>
+        <f t="shared" si="15"/>
+        <v>36.014079999999993</v>
       </c>
       <c r="E39" s="6">
-        <f t="shared" si="26"/>
-        <v>36.071999999999996</v>
+        <f t="shared" si="16"/>
+        <v>36.015679999999996</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" si="27"/>
-        <v>36.108000000000004</v>
+        <f t="shared" si="17"/>
+        <v>36.016479999999994</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="7">
-        <f t="shared" si="18"/>
-        <v>6.3000000000009493E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I39" s="7">
-        <f t="shared" si="19"/>
-        <v>0.10799999999999699</v>
+        <f t="shared" si="8"/>
+        <v>2.400000000001512E-3</v>
       </c>
       <c r="J39" s="7">
-        <f t="shared" si="20"/>
-        <v>1.8000000000000682E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.000000000061732E-4</v>
       </c>
       <c r="K39" s="7">
-        <f t="shared" si="21"/>
-        <v>-7.1999999999995623E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000000000033765E-3</v>
       </c>
       <c r="L39" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.11700000000000443</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7">
-        <f t="shared" si="6"/>
-        <v>0.17999999999999972</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999977831E-3</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>37</v>
       </c>
       <c r="B40" s="6">
-        <f t="shared" si="23"/>
-        <v>36.962999999999994</v>
+        <f t="shared" si="13"/>
+        <v>37.013680000000001</v>
       </c>
       <c r="C40" s="6">
-        <f t="shared" si="24"/>
-        <v>36.926000000000002</v>
+        <f t="shared" si="14"/>
+        <v>37.012879999999996</v>
       </c>
       <c r="D40" s="6">
-        <f t="shared" si="25"/>
-        <v>37</v>
+        <f t="shared" si="15"/>
+        <v>37.014479999999999</v>
       </c>
       <c r="E40" s="6">
-        <f t="shared" si="26"/>
-        <v>37.073999999999998</v>
+        <f t="shared" si="16"/>
+        <v>37.016079999999995</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" si="27"/>
-        <v>37.111000000000004</v>
+        <f t="shared" si="17"/>
+        <v>37.016879999999993</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="7">
-        <f t="shared" si="18"/>
-        <v>6.4750000000003638E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.3999999999896318E-3</v>
       </c>
       <c r="I40" s="7">
-        <f t="shared" si="19"/>
-        <v>0.1109999999999971</v>
+        <f t="shared" si="8"/>
+        <v>2.400000000001512E-3</v>
       </c>
       <c r="J40" s="7">
-        <f t="shared" si="20"/>
-        <v>1.850000000000307E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999196234E-4</v>
       </c>
       <c r="K40" s="7">
-        <f t="shared" si="21"/>
-        <v>-7.3999999999998067E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000000000033765E-3</v>
       </c>
       <c r="L40" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.12025000000000574</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M40" s="7"/>
       <c r="N40" s="7">
-        <f t="shared" si="6"/>
-        <v>0.18500000000000227</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999977831E-3</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>38</v>
       </c>
       <c r="B41" s="6">
-        <f t="shared" si="23"/>
-        <v>37.961999999999996</v>
+        <f t="shared" si="13"/>
+        <v>38.014079999999993</v>
       </c>
       <c r="C41" s="6">
-        <f t="shared" si="24"/>
-        <v>37.923999999999999</v>
+        <f t="shared" si="14"/>
+        <v>38.013279999999995</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" si="25"/>
-        <v>38</v>
+        <f t="shared" si="15"/>
+        <v>38.014879999999991</v>
       </c>
       <c r="E41" s="6">
-        <f t="shared" si="26"/>
-        <v>38.076000000000001</v>
+        <f t="shared" si="16"/>
+        <v>38.016479999999994</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" si="27"/>
-        <v>38.114000000000004</v>
+        <f t="shared" si="17"/>
+        <v>38.017279999999992</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="7">
-        <f t="shared" si="18"/>
-        <v>6.6500000000004889E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I41" s="7">
-        <f t="shared" si="19"/>
-        <v>0.11399999999999721</v>
+        <f t="shared" si="8"/>
+        <v>2.400000000001512E-3</v>
       </c>
       <c r="J41" s="7">
-        <f t="shared" si="20"/>
-        <v>1.8999999999998352E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.000000000061732E-4</v>
       </c>
       <c r="K41" s="7">
-        <f t="shared" si="21"/>
-        <v>-7.6000000000000512E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000000000033765E-3</v>
       </c>
       <c r="L41" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.12350000000000705</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M41" s="7"/>
       <c r="N41" s="7">
-        <f t="shared" si="6"/>
-        <v>0.19000000000000483</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999977831E-3</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>39</v>
       </c>
       <c r="B42" s="6">
-        <f t="shared" si="23"/>
-        <v>38.960999999999999</v>
+        <f t="shared" si="13"/>
+        <v>39.014479999999999</v>
       </c>
       <c r="C42" s="6">
-        <f t="shared" si="24"/>
-        <v>38.921999999999997</v>
+        <f t="shared" si="14"/>
+        <v>39.013679999999994</v>
       </c>
       <c r="D42" s="6">
-        <f t="shared" si="25"/>
-        <v>39</v>
+        <f t="shared" si="15"/>
+        <v>39.015279999999997</v>
       </c>
       <c r="E42" s="6">
-        <f t="shared" si="26"/>
-        <v>39.078000000000003</v>
+        <f t="shared" si="16"/>
+        <v>39.016879999999993</v>
       </c>
       <c r="F42" s="6">
-        <f t="shared" si="27"/>
-        <v>39.117000000000004</v>
+        <f t="shared" si="17"/>
+        <v>39.017679999999991</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="7">
-        <f t="shared" si="18"/>
-        <v>6.8250000000006139E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.3999999999896318E-3</v>
       </c>
       <c r="I42" s="7">
-        <f t="shared" si="19"/>
-        <v>0.11700000000000443</v>
+        <f t="shared" si="8"/>
+        <v>2.400000000001512E-3</v>
       </c>
       <c r="J42" s="7">
-        <f t="shared" si="20"/>
-        <v>1.9500000000000739E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999196234E-4</v>
       </c>
       <c r="K42" s="7">
-        <f t="shared" si="21"/>
-        <v>-7.8000000000002956E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000000000033765E-3</v>
       </c>
       <c r="L42" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.12675000000000125</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M42" s="7"/>
       <c r="N42" s="7">
-        <f t="shared" si="6"/>
-        <v>0.19500000000000739</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999977831E-3</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="B43" s="6">
-        <f t="shared" si="23"/>
-        <v>39.96</v>
+        <f t="shared" si="13"/>
+        <v>40.014879999999991</v>
       </c>
       <c r="C43" s="6">
-        <f t="shared" si="24"/>
-        <v>39.919999999999995</v>
+        <f t="shared" si="14"/>
+        <v>40.014079999999993</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="25"/>
-        <v>40</v>
+        <f t="shared" si="15"/>
+        <v>40.015679999999989</v>
       </c>
       <c r="E43" s="6">
-        <f t="shared" si="26"/>
-        <v>40.080000000000005</v>
+        <f t="shared" si="16"/>
+        <v>40.017279999999992</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="27"/>
-        <v>40.120000000000005</v>
+        <f t="shared" si="17"/>
+        <v>40.018079999999991</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="7">
-        <f t="shared" si="18"/>
-        <v>7.0000000000000284E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I43" s="7">
-        <f t="shared" si="19"/>
-        <v>0.12000000000001165</v>
+        <f t="shared" si="8"/>
+        <v>2.400000000001512E-3</v>
       </c>
       <c r="J43" s="7">
-        <f t="shared" si="20"/>
-        <v>2.0000000000003126E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.000000000061732E-4</v>
       </c>
       <c r="K43" s="7">
-        <f t="shared" si="21"/>
-        <v>-8.00000000000054E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000000000033765E-3</v>
       </c>
       <c r="L43" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.13000000000000256</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M43" s="7"/>
       <c r="N43" s="7">
-        <f t="shared" si="6"/>
-        <v>0.20000000000000995</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999977831E-3</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>41</v>
       </c>
       <c r="B44" s="6">
-        <f t="shared" si="23"/>
-        <v>40.959000000000003</v>
+        <f t="shared" si="13"/>
+        <v>41.015279999999997</v>
       </c>
       <c r="C44" s="6">
-        <f t="shared" si="24"/>
-        <v>40.917999999999992</v>
+        <f t="shared" si="14"/>
+        <v>41.014479999999992</v>
       </c>
       <c r="D44" s="6">
-        <f t="shared" si="25"/>
-        <v>41</v>
+        <f t="shared" si="15"/>
+        <v>41.016079999999995</v>
       </c>
       <c r="E44" s="6">
-        <f t="shared" si="26"/>
-        <v>41.082000000000008</v>
+        <f t="shared" si="16"/>
+        <v>41.017679999999991</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" si="27"/>
-        <v>41.123000000000005</v>
+        <f t="shared" si="17"/>
+        <v>41.01847999999999</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="7">
-        <f t="shared" si="18"/>
-        <v>7.1749999999994429E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.3999999999896318E-3</v>
       </c>
       <c r="I44" s="7">
-        <f t="shared" si="19"/>
-        <v>0.12300000000001177</v>
+        <f t="shared" si="8"/>
+        <v>2.400000000001512E-3</v>
       </c>
       <c r="J44" s="7">
-        <f t="shared" si="20"/>
-        <v>2.0499999999998408E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999196234E-4</v>
       </c>
       <c r="K44" s="7">
-        <f t="shared" si="21"/>
-        <v>-8.2000000000007844E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000000000033765E-3</v>
       </c>
       <c r="L44" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.13325000000000387</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M44" s="7"/>
       <c r="N44" s="7">
-        <f t="shared" si="6"/>
-        <v>0.20500000000001251</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999977831E-3</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="B45" s="6">
-        <f t="shared" si="23"/>
-        <v>41.958000000000006</v>
+        <f t="shared" si="13"/>
+        <v>42.015679999999989</v>
       </c>
       <c r="C45" s="6">
-        <f t="shared" si="24"/>
-        <v>41.91599999999999</v>
+        <f t="shared" si="14"/>
+        <v>42.014879999999991</v>
       </c>
       <c r="D45" s="6">
-        <f t="shared" si="25"/>
-        <v>42</v>
+        <f t="shared" si="15"/>
+        <v>42.016479999999987</v>
       </c>
       <c r="E45" s="6">
-        <f t="shared" si="26"/>
-        <v>42.08400000000001</v>
+        <f t="shared" si="16"/>
+        <v>42.018079999999991</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" si="27"/>
-        <v>42.126000000000005</v>
+        <f t="shared" si="17"/>
+        <v>42.018879999999989</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="7">
-        <f t="shared" si="18"/>
-        <v>7.349999999999568E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I45" s="7">
-        <f t="shared" si="19"/>
-        <v>0.12600000000001188</v>
+        <f t="shared" si="8"/>
+        <v>2.400000000001512E-3</v>
       </c>
       <c r="J45" s="7">
-        <f t="shared" si="20"/>
-        <v>2.1000000000000796E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.000000000061732E-4</v>
       </c>
       <c r="K45" s="7">
-        <f t="shared" si="21"/>
-        <v>-8.4000000000010289E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000000000033765E-3</v>
       </c>
       <c r="L45" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.13650000000000517</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M45" s="7"/>
       <c r="N45" s="7">
-        <f t="shared" si="6"/>
-        <v>0.21000000000001506</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999977831E-3</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>43</v>
       </c>
       <c r="B46" s="6">
-        <f t="shared" si="23"/>
-        <v>42.957000000000008</v>
+        <f t="shared" si="13"/>
+        <v>43.016079999999995</v>
       </c>
       <c r="C46" s="6">
-        <f t="shared" si="24"/>
-        <v>42.913999999999987</v>
+        <f t="shared" si="14"/>
+        <v>43.01527999999999</v>
       </c>
       <c r="D46" s="6">
-        <f t="shared" si="25"/>
-        <v>43</v>
+        <f t="shared" si="15"/>
+        <v>43.016879999999993</v>
       </c>
       <c r="E46" s="6">
-        <f t="shared" si="26"/>
-        <v>43.086000000000013</v>
+        <f t="shared" si="16"/>
+        <v>43.01847999999999</v>
       </c>
       <c r="F46" s="6">
-        <f t="shared" si="27"/>
-        <v>43.129000000000005</v>
+        <f t="shared" si="17"/>
+        <v>43.019279999999988</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="7">
-        <f t="shared" si="18"/>
-        <v>7.524999999999693E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.3999999999896318E-3</v>
       </c>
       <c r="I46" s="7">
-        <f t="shared" si="19"/>
-        <v>0.1290000000000191</v>
+        <f t="shared" si="8"/>
+        <v>2.400000000001512E-3</v>
       </c>
       <c r="J46" s="7">
-        <f t="shared" si="20"/>
-        <v>2.1500000000003183E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999196234E-4</v>
       </c>
       <c r="K46" s="7">
-        <f t="shared" si="21"/>
-        <v>-8.6000000000012733E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000000000033765E-3</v>
       </c>
       <c r="L46" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.13975000000000648</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M46" s="7"/>
       <c r="N46" s="7">
-        <f t="shared" si="6"/>
-        <v>0.21500000000001762</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999977831E-3</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="B47" s="6">
-        <f t="shared" si="23"/>
-        <v>43.95600000000001</v>
+        <f t="shared" si="13"/>
+        <v>44.016479999999987</v>
       </c>
       <c r="C47" s="6">
-        <f t="shared" si="24"/>
-        <v>43.911999999999985</v>
+        <f t="shared" si="14"/>
+        <v>44.015679999999989</v>
       </c>
       <c r="D47" s="6">
-        <f t="shared" si="25"/>
-        <v>44</v>
+        <f t="shared" si="15"/>
+        <v>44.017279999999985</v>
       </c>
       <c r="E47" s="6">
-        <f t="shared" si="26"/>
-        <v>44.088000000000015</v>
+        <f t="shared" si="16"/>
+        <v>44.018879999999989</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" si="27"/>
-        <v>44.132000000000005</v>
+        <f t="shared" si="17"/>
+        <v>44.019679999999987</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="7">
-        <f t="shared" si="18"/>
-        <v>7.6999999999991076E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I47" s="7">
-        <f t="shared" si="19"/>
-        <v>0.13200000000002632</v>
+        <f t="shared" si="8"/>
+        <v>2.400000000001512E-3</v>
       </c>
       <c r="J47" s="7">
-        <f t="shared" si="20"/>
-        <v>2.2000000000005571E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.000000000061732E-4</v>
       </c>
       <c r="K47" s="7">
-        <f t="shared" si="21"/>
-        <v>-8.8000000000015177E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000000000033765E-3</v>
       </c>
       <c r="L47" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.14300000000000068</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M47" s="7"/>
       <c r="N47" s="7">
-        <f t="shared" si="6"/>
-        <v>0.22000000000002018</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999977831E-3</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="B48" s="6">
-        <f t="shared" si="23"/>
-        <v>44.955000000000013</v>
+        <f t="shared" si="13"/>
+        <v>45.016879999999993</v>
       </c>
       <c r="C48" s="6">
-        <f t="shared" si="24"/>
-        <v>44.909999999999982</v>
+        <f t="shared" si="14"/>
+        <v>45.016079999999988</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="25"/>
-        <v>45</v>
+        <f t="shared" si="15"/>
+        <v>45.017679999999991</v>
       </c>
       <c r="E48" s="6">
-        <f t="shared" si="26"/>
-        <v>45.090000000000018</v>
+        <f t="shared" si="16"/>
+        <v>45.019279999999988</v>
       </c>
       <c r="F48" s="6">
-        <f t="shared" si="27"/>
-        <v>45.135000000000005</v>
+        <f t="shared" si="17"/>
+        <v>45.020079999999986</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="7">
-        <f t="shared" si="18"/>
-        <v>7.8749999999985221E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.3999999999896318E-3</v>
       </c>
       <c r="I48" s="7">
-        <f t="shared" si="19"/>
-        <v>0.13500000000001933</v>
+        <f t="shared" si="8"/>
+        <v>2.400000000001512E-3</v>
       </c>
       <c r="J48" s="7">
-        <f t="shared" si="20"/>
-        <v>2.2500000000007958E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999196234E-4</v>
       </c>
       <c r="K48" s="7">
-        <f t="shared" si="21"/>
-        <v>-9.0000000000017621E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000000000033765E-3</v>
       </c>
       <c r="L48" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.14624999999999488</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M48" s="7"/>
       <c r="N48" s="7">
-        <f t="shared" si="6"/>
-        <v>0.22500000000002274</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999977831E-3</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>46</v>
       </c>
       <c r="B49" s="6">
-        <f t="shared" si="23"/>
-        <v>45.954000000000015</v>
+        <f t="shared" si="13"/>
+        <v>46.017279999999985</v>
       </c>
       <c r="C49" s="6">
-        <f t="shared" si="24"/>
-        <v>45.90799999999998</v>
+        <f t="shared" si="14"/>
+        <v>46.016479999999987</v>
       </c>
       <c r="D49" s="6">
-        <f t="shared" si="25"/>
-        <v>46</v>
+        <f t="shared" si="15"/>
+        <v>46.018079999999983</v>
       </c>
       <c r="E49" s="6">
-        <f t="shared" si="26"/>
-        <v>46.09200000000002</v>
+        <f t="shared" si="16"/>
+        <v>46.019679999999987</v>
       </c>
       <c r="F49" s="6">
-        <f t="shared" si="27"/>
-        <v>46.138000000000005</v>
+        <f t="shared" si="17"/>
+        <v>46.020479999999985</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="7">
-        <f t="shared" si="18"/>
-        <v>8.0499999999986471E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I49" s="7">
-        <f t="shared" si="19"/>
-        <v>0.13800000000002655</v>
+        <f t="shared" si="8"/>
+        <v>2.400000000001512E-3</v>
       </c>
       <c r="J49" s="7">
-        <f t="shared" si="20"/>
-        <v>2.300000000000324E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.000000000061732E-4</v>
       </c>
       <c r="K49" s="7">
-        <f t="shared" si="21"/>
-        <v>-9.2000000000020066E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L49" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.1495000000000033</v>
+        <f t="shared" si="11"/>
+        <v>-2.5999999999939405E-3</v>
       </c>
       <c r="M49" s="7"/>
       <c r="N49" s="7">
-        <f t="shared" si="6"/>
-        <v>0.2300000000000253</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999977831E-3</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>47</v>
       </c>
       <c r="B50" s="6">
-        <f t="shared" si="23"/>
-        <v>46.953000000000017</v>
+        <f t="shared" si="13"/>
+        <v>47.017679999999991</v>
       </c>
       <c r="C50" s="6">
-        <f t="shared" si="24"/>
-        <v>46.905999999999977</v>
+        <f t="shared" si="14"/>
+        <v>47.016879999999986</v>
       </c>
       <c r="D50" s="6">
-        <f t="shared" si="25"/>
-        <v>47</v>
+        <f t="shared" si="15"/>
+        <v>47.01847999999999</v>
       </c>
       <c r="E50" s="6">
-        <f t="shared" si="26"/>
-        <v>47.094000000000023</v>
+        <f t="shared" si="16"/>
+        <v>47.020079999999993</v>
       </c>
       <c r="F50" s="6">
-        <f t="shared" si="27"/>
-        <v>47.141000000000005</v>
+        <f t="shared" si="17"/>
+        <v>47.020879999999991</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="7">
-        <f t="shared" si="18"/>
-        <v>8.2249999999987722E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.3999999999967372E-3</v>
       </c>
       <c r="I50" s="7">
-        <f t="shared" si="19"/>
-        <v>0.14100000000003376</v>
+        <f t="shared" si="8"/>
+        <v>2.4000000000086175E-3</v>
       </c>
       <c r="J50" s="7">
-        <f t="shared" si="20"/>
-        <v>2.3500000000012733E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999196234E-4</v>
       </c>
       <c r="K50" s="7">
-        <f t="shared" si="21"/>
-        <v>-9.400000000002251E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000000000104819E-3</v>
       </c>
       <c r="L50" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.1527500000000046</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M50" s="7"/>
       <c r="N50" s="7">
-        <f t="shared" si="6"/>
-        <v>0.23500000000002785</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000000048885E-3</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>48</v>
       </c>
       <c r="B51" s="6">
-        <f t="shared" si="23"/>
-        <v>47.952000000000019</v>
+        <f t="shared" si="13"/>
+        <v>48.018079999999991</v>
       </c>
       <c r="C51" s="6">
-        <f t="shared" si="24"/>
-        <v>47.903999999999975</v>
+        <f t="shared" si="14"/>
+        <v>48.017279999999992</v>
       </c>
       <c r="D51" s="6">
-        <f t="shared" si="25"/>
-        <v>48</v>
+        <f t="shared" si="15"/>
+        <v>48.018879999999982</v>
       </c>
       <c r="E51" s="6">
-        <f t="shared" si="26"/>
-        <v>48.096000000000025</v>
+        <f t="shared" si="16"/>
+        <v>48.020479999999985</v>
       </c>
       <c r="F51" s="6">
-        <f t="shared" si="27"/>
-        <v>48.144000000000005</v>
+        <f t="shared" si="17"/>
+        <v>48.02127999999999</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="7">
-        <f t="shared" si="18"/>
-        <v>8.3999999999981867E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.3999999999967372E-3</v>
       </c>
       <c r="I51" s="7">
-        <f t="shared" si="19"/>
-        <v>0.14400000000004098</v>
+        <f t="shared" si="8"/>
+        <v>2.3999999999944066E-3</v>
       </c>
       <c r="J51" s="7">
-        <f t="shared" si="20"/>
-        <v>2.4000000000008015E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.000000000061732E-4</v>
       </c>
       <c r="K51" s="7">
-        <f t="shared" si="21"/>
-        <v>-9.6000000000024954E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L51" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.15599999999999881</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M51" s="7"/>
       <c r="N51" s="7">
-        <f t="shared" si="6"/>
-        <v>0.24000000000003041</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999977831E-3</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>49</v>
       </c>
       <c r="B52" s="6">
-        <f t="shared" si="23"/>
-        <v>48.951000000000022</v>
+        <f t="shared" si="13"/>
+        <v>49.01847999999999</v>
       </c>
       <c r="C52" s="6">
-        <f t="shared" si="24"/>
-        <v>48.901999999999973</v>
+        <f t="shared" si="14"/>
+        <v>49.017679999999984</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" si="25"/>
-        <v>49</v>
+        <f t="shared" si="15"/>
+        <v>49.019279999999988</v>
       </c>
       <c r="E52" s="6">
-        <f t="shared" si="26"/>
-        <v>49.098000000000027</v>
+        <f t="shared" si="16"/>
+        <v>49.020879999999991</v>
       </c>
       <c r="F52" s="6">
-        <f t="shared" si="27"/>
-        <v>49.147000000000006</v>
+        <f t="shared" si="17"/>
+        <v>49.021679999999989</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="7">
-        <f t="shared" si="18"/>
-        <v>8.5749999999976012E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.3999999999967372E-3</v>
       </c>
       <c r="I52" s="7">
-        <f t="shared" si="19"/>
-        <v>0.14700000000003399</v>
+        <f t="shared" si="8"/>
+        <v>2.4000000000086175E-3</v>
       </c>
       <c r="J52" s="7">
-        <f t="shared" si="20"/>
-        <v>2.4500000000003297E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.000000000061732E-4</v>
       </c>
       <c r="K52" s="7">
-        <f t="shared" si="21"/>
-        <v>-9.8000000000027399E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000000000104819E-3</v>
       </c>
       <c r="L52" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.15925000000000011</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M52" s="7"/>
       <c r="N52" s="7">
-        <f t="shared" si="6"/>
-        <v>0.24500000000003297</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000000048885E-3</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="B53" s="6">
-        <f t="shared" si="23"/>
-        <v>49.950000000000024</v>
+        <f t="shared" si="13"/>
+        <v>50.018879999999989</v>
       </c>
       <c r="C53" s="6">
-        <f t="shared" si="24"/>
-        <v>49.89999999999997</v>
+        <f t="shared" si="14"/>
+        <v>50.018079999999991</v>
       </c>
       <c r="D53" s="6">
-        <f t="shared" si="25"/>
-        <v>50</v>
+        <f t="shared" si="15"/>
+        <v>50.019679999999994</v>
       </c>
       <c r="E53" s="6">
-        <f t="shared" si="26"/>
-        <v>50.10000000000003</v>
+        <f t="shared" si="16"/>
+        <v>50.021279999999983</v>
       </c>
       <c r="F53" s="6">
-        <f t="shared" si="27"/>
-        <v>50.150000000000006</v>
+        <f t="shared" si="17"/>
+        <v>50.022079999999988</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="7">
-        <f t="shared" si="18"/>
-        <v>8.7499999999977263E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I53" s="7">
-        <f t="shared" si="19"/>
-        <v>0.15000000000004121</v>
+        <f t="shared" si="8"/>
+        <v>2.400000000001512E-3</v>
       </c>
       <c r="J53" s="7">
-        <f t="shared" si="20"/>
-        <v>2.5000000000005684E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999196234E-4</v>
       </c>
       <c r="K53" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.10000000000002984</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L53" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.16250000000000142</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M53" s="7"/>
       <c r="N53" s="7">
-        <f t="shared" si="6"/>
-        <v>0.25000000000003553</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999977831E-3</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>51</v>
       </c>
       <c r="B54" s="6">
-        <f t="shared" si="23"/>
-        <v>50.949000000000026</v>
+        <f t="shared" si="13"/>
+        <v>51.019279999999995</v>
       </c>
       <c r="C54" s="6">
-        <f t="shared" si="24"/>
-        <v>50.897999999999968</v>
+        <f t="shared" si="14"/>
+        <v>51.01847999999999</v>
       </c>
       <c r="D54" s="6">
-        <f t="shared" si="25"/>
-        <v>51</v>
+        <f t="shared" si="15"/>
+        <v>51.020079999999986</v>
       </c>
       <c r="E54" s="6">
-        <f t="shared" si="26"/>
-        <v>51.102000000000032</v>
+        <f t="shared" si="16"/>
+        <v>51.021679999999989</v>
       </c>
       <c r="F54" s="6">
-        <f t="shared" si="27"/>
-        <v>51.153000000000006</v>
+        <f t="shared" si="17"/>
+        <v>51.022479999999987</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="7">
-        <f t="shared" si="18"/>
-        <v>8.9249999999978513E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.3999999999896318E-3</v>
       </c>
       <c r="I54" s="7">
-        <f t="shared" si="19"/>
-        <v>0.15300000000004843</v>
+        <f t="shared" si="8"/>
+        <v>2.400000000001512E-3</v>
       </c>
       <c r="J54" s="7">
-        <f t="shared" si="20"/>
-        <v>2.5500000000008072E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.000000000061732E-4</v>
       </c>
       <c r="K54" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.10200000000003229</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L54" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.16575000000000273</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M54" s="7"/>
       <c r="N54" s="7">
-        <f t="shared" si="6"/>
-        <v>0.25500000000003809</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999977831E-3</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>52</v>
       </c>
       <c r="B55" s="6">
-        <f t="shared" si="23"/>
-        <v>51.948000000000029</v>
+        <f t="shared" si="13"/>
+        <v>52.019679999999987</v>
       </c>
       <c r="C55" s="6">
-        <f t="shared" si="24"/>
-        <v>51.895999999999965</v>
+        <f t="shared" si="14"/>
+        <v>52.018879999999989</v>
       </c>
       <c r="D55" s="6">
-        <f t="shared" si="25"/>
-        <v>52</v>
+        <f t="shared" si="15"/>
+        <v>52.020479999999992</v>
       </c>
       <c r="E55" s="6">
-        <f t="shared" si="26"/>
-        <v>52.104000000000035</v>
+        <f t="shared" si="16"/>
+        <v>52.022079999999995</v>
       </c>
       <c r="F55" s="6">
-        <f t="shared" si="27"/>
-        <v>52.156000000000006</v>
+        <f t="shared" si="17"/>
+        <v>52.022879999999986</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="7">
-        <f t="shared" si="18"/>
-        <v>9.0999999999972658E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I55" s="7">
-        <f t="shared" si="19"/>
-        <v>0.15600000000005565</v>
+        <f t="shared" si="8"/>
+        <v>2.400000000001512E-3</v>
       </c>
       <c r="J55" s="7">
-        <f t="shared" si="20"/>
-        <v>2.6000000000010459E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999906777E-4</v>
       </c>
       <c r="K55" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.10400000000003473</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000000000033765E-3</v>
       </c>
       <c r="L55" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.16899999999999693</v>
+        <f t="shared" si="11"/>
+        <v>-2.5999999999939405E-3</v>
       </c>
       <c r="M55" s="7"/>
       <c r="N55" s="7">
-        <f t="shared" si="6"/>
-        <v>0.26000000000004064</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999977831E-3</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>53</v>
       </c>
       <c r="B56" s="6">
-        <f t="shared" si="23"/>
-        <v>52.947000000000031</v>
+        <f t="shared" si="13"/>
+        <v>53.020079999999993</v>
       </c>
       <c r="C56" s="6">
-        <f t="shared" si="24"/>
-        <v>52.893999999999963</v>
+        <f t="shared" si="14"/>
+        <v>53.019279999999988</v>
       </c>
       <c r="D56" s="6">
-        <f t="shared" si="25"/>
-        <v>53</v>
+        <f t="shared" si="15"/>
+        <v>53.020879999999991</v>
       </c>
       <c r="E56" s="6">
-        <f t="shared" si="26"/>
-        <v>53.106000000000037</v>
+        <f t="shared" si="16"/>
+        <v>53.022479999999995</v>
       </c>
       <c r="F56" s="6">
-        <f t="shared" si="27"/>
-        <v>53.159000000000006</v>
+        <f t="shared" si="17"/>
+        <v>53.023279999999993</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="7">
-        <f t="shared" si="18"/>
-        <v>9.2749999999966803E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I56" s="7">
-        <f t="shared" si="19"/>
-        <v>0.15900000000004866</v>
+        <f t="shared" si="8"/>
+        <v>2.4000000000086175E-3</v>
       </c>
       <c r="J56" s="7">
-        <f t="shared" si="20"/>
-        <v>2.6500000000012847E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.000000000061732E-4</v>
       </c>
       <c r="K56" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.10600000000003718</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000000000033765E-3</v>
       </c>
       <c r="L56" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.17224999999999113</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M56" s="7"/>
       <c r="N56" s="7">
-        <f t="shared" si="6"/>
-        <v>0.2650000000000432</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000000048885E-3</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
       <c r="B57" s="6">
-        <f t="shared" si="23"/>
-        <v>53.946000000000033</v>
+        <f t="shared" si="13"/>
+        <v>54.020479999999999</v>
       </c>
       <c r="C57" s="6">
-        <f t="shared" si="24"/>
-        <v>53.89199999999996</v>
+        <f t="shared" si="14"/>
+        <v>54.019679999999994</v>
       </c>
       <c r="D57" s="6">
-        <f t="shared" si="25"/>
-        <v>54</v>
+        <f t="shared" si="15"/>
+        <v>54.021279999999997</v>
       </c>
       <c r="E57" s="6">
-        <f t="shared" si="26"/>
-        <v>54.10800000000004</v>
+        <f t="shared" si="16"/>
+        <v>54.022879999999994</v>
       </c>
       <c r="F57" s="6">
-        <f t="shared" si="27"/>
-        <v>54.162000000000006</v>
+        <f t="shared" si="17"/>
+        <v>54.023679999999992</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="7">
-        <f t="shared" si="18"/>
-        <v>9.4499999999968054E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.3999999999896318E-3</v>
       </c>
       <c r="I57" s="7">
-        <f t="shared" si="19"/>
-        <v>0.16200000000005588</v>
+        <f t="shared" si="8"/>
+        <v>2.400000000001512E-3</v>
       </c>
       <c r="J57" s="7">
-        <f t="shared" si="20"/>
-        <v>2.7000000000008129E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999196234E-4</v>
       </c>
       <c r="K57" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.10800000000003962</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000000000033765E-3</v>
       </c>
       <c r="L57" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.17549999999999955</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M57" s="7"/>
       <c r="N57" s="7">
-        <f t="shared" si="6"/>
-        <v>0.27000000000004576</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999977831E-3</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>55</v>
       </c>
       <c r="B58" s="6">
-        <f t="shared" si="23"/>
-        <v>54.945000000000036</v>
+        <f t="shared" si="13"/>
+        <v>55.020879999999991</v>
       </c>
       <c r="C58" s="6">
-        <f t="shared" si="24"/>
-        <v>54.889999999999958</v>
+        <f t="shared" si="14"/>
+        <v>55.020079999999993</v>
       </c>
       <c r="D58" s="6">
-        <f t="shared" si="25"/>
-        <v>55</v>
+        <f t="shared" si="15"/>
+        <v>55.021679999999989</v>
       </c>
       <c r="E58" s="6">
-        <f t="shared" si="26"/>
-        <v>55.110000000000042</v>
+        <f t="shared" si="16"/>
+        <v>55.023279999999993</v>
       </c>
       <c r="F58" s="6">
-        <f t="shared" si="27"/>
-        <v>55.165000000000006</v>
+        <f t="shared" si="17"/>
+        <v>55.024079999999991</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="7">
-        <f t="shared" si="18"/>
-        <v>9.6249999999969305E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I58" s="7">
-        <f t="shared" si="19"/>
-        <v>0.1650000000000631</v>
+        <f t="shared" si="8"/>
+        <v>2.400000000001512E-3</v>
       </c>
       <c r="J58" s="7">
-        <f t="shared" si="20"/>
-        <v>2.7500000000017621E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.000000000061732E-4</v>
       </c>
       <c r="K58" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.11000000000004206</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L58" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.17875000000000085</v>
+        <f t="shared" si="11"/>
+        <v>-2.5999999999939405E-3</v>
       </c>
       <c r="M58" s="7"/>
       <c r="N58" s="7">
-        <f t="shared" si="6"/>
-        <v>0.27500000000004832</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999977831E-3</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="B59" s="6">
-        <f t="shared" si="23"/>
-        <v>55.944000000000038</v>
+        <f t="shared" si="13"/>
+        <v>56.021279999999997</v>
       </c>
       <c r="C59" s="6">
-        <f t="shared" si="24"/>
-        <v>55.887999999999955</v>
+        <f t="shared" si="14"/>
+        <v>56.020479999999992</v>
       </c>
       <c r="D59" s="6">
-        <f t="shared" si="25"/>
-        <v>56</v>
+        <f t="shared" si="15"/>
+        <v>56.022079999999995</v>
       </c>
       <c r="E59" s="6">
-        <f t="shared" si="26"/>
-        <v>56.112000000000045</v>
+        <f t="shared" si="16"/>
+        <v>56.023679999999999</v>
       </c>
       <c r="F59" s="6">
-        <f t="shared" si="27"/>
-        <v>56.168000000000006</v>
+        <f t="shared" si="17"/>
+        <v>56.024479999999997</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="7">
-        <f t="shared" si="18"/>
-        <v>9.799999999996345E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.3999999999967372E-3</v>
       </c>
       <c r="I59" s="7">
-        <f t="shared" si="19"/>
-        <v>0.16800000000007032</v>
+        <f t="shared" si="8"/>
+        <v>2.4000000000086175E-3</v>
       </c>
       <c r="J59" s="7">
-        <f t="shared" si="20"/>
-        <v>2.8000000000012903E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999196234E-4</v>
       </c>
       <c r="K59" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.11200000000004451</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000000000104819E-3</v>
       </c>
       <c r="L59" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.18199999999999505</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M59" s="7"/>
       <c r="N59" s="7">
-        <f t="shared" si="6"/>
-        <v>0.28000000000005087</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000000048885E-3</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
       <c r="B60" s="6">
-        <f t="shared" si="23"/>
-        <v>56.94300000000004</v>
+        <f t="shared" si="13"/>
+        <v>57.021679999999996</v>
       </c>
       <c r="C60" s="6">
-        <f t="shared" si="24"/>
-        <v>56.885999999999953</v>
+        <f t="shared" si="14"/>
+        <v>57.020879999999998</v>
       </c>
       <c r="D60" s="6">
-        <f t="shared" si="25"/>
-        <v>57</v>
+        <f t="shared" si="15"/>
+        <v>57.022479999999987</v>
       </c>
       <c r="E60" s="6">
-        <f t="shared" si="26"/>
-        <v>57.114000000000047</v>
+        <f t="shared" si="16"/>
+        <v>57.024079999999991</v>
       </c>
       <c r="F60" s="6">
-        <f t="shared" si="27"/>
-        <v>57.171000000000006</v>
+        <f t="shared" si="17"/>
+        <v>57.024879999999996</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="7">
-        <f t="shared" si="18"/>
-        <v>9.9749999999957595E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.3999999999967372E-3</v>
       </c>
       <c r="I60" s="7">
-        <f t="shared" si="19"/>
-        <v>0.17100000000006332</v>
+        <f t="shared" si="8"/>
+        <v>2.3999999999944066E-3</v>
       </c>
       <c r="J60" s="7">
-        <f t="shared" si="20"/>
-        <v>2.8500000000008185E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.000000000061732E-4</v>
       </c>
       <c r="K60" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.11400000000004695</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L60" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.18524999999999636</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M60" s="7"/>
       <c r="N60" s="7">
-        <f t="shared" si="6"/>
-        <v>0.28500000000005343</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999977831E-3</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>58</v>
       </c>
       <c r="B61" s="6">
-        <f t="shared" si="23"/>
-        <v>57.942000000000043</v>
+        <f t="shared" si="13"/>
+        <v>58.022079999999995</v>
       </c>
       <c r="C61" s="6">
-        <f t="shared" si="24"/>
-        <v>57.883999999999951</v>
+        <f t="shared" si="14"/>
+        <v>58.02127999999999</v>
       </c>
       <c r="D61" s="6">
-        <f t="shared" si="25"/>
-        <v>58</v>
+        <f t="shared" si="15"/>
+        <v>58.022879999999994</v>
       </c>
       <c r="E61" s="6">
-        <f t="shared" si="26"/>
-        <v>58.116000000000049</v>
+        <f t="shared" si="16"/>
+        <v>58.024479999999997</v>
       </c>
       <c r="F61" s="6">
-        <f t="shared" si="27"/>
-        <v>58.174000000000007</v>
+        <f t="shared" si="17"/>
+        <v>58.025279999999995</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="7">
-        <f t="shared" si="18"/>
-        <v>0.10149999999995885</v>
+        <f t="shared" si="7"/>
+        <v>1.3999999999967372E-3</v>
       </c>
       <c r="I61" s="7">
-        <f t="shared" si="19"/>
-        <v>0.17400000000007054</v>
+        <f t="shared" si="8"/>
+        <v>2.4000000000086175E-3</v>
       </c>
       <c r="J61" s="7">
-        <f t="shared" si="20"/>
-        <v>2.9000000000010573E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.000000000061732E-4</v>
       </c>
       <c r="K61" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.1160000000000494</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000000000104819E-3</v>
       </c>
       <c r="L61" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.18849999999999767</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M61" s="7"/>
       <c r="N61" s="7">
-        <f t="shared" si="6"/>
-        <v>0.29000000000005599</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000000048885E-3</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>59</v>
       </c>
       <c r="B62" s="6">
-        <f t="shared" si="23"/>
-        <v>58.941000000000045</v>
+        <f t="shared" si="13"/>
+        <v>59.022479999999995</v>
       </c>
       <c r="C62" s="6">
-        <f t="shared" si="24"/>
-        <v>58.881999999999948</v>
+        <f t="shared" si="14"/>
+        <v>59.021679999999996</v>
       </c>
       <c r="D62" s="6">
-        <f t="shared" si="25"/>
-        <v>59</v>
+        <f t="shared" si="15"/>
+        <v>59.02328</v>
       </c>
       <c r="E62" s="6">
-        <f t="shared" si="26"/>
-        <v>59.118000000000052</v>
+        <f t="shared" si="16"/>
+        <v>59.024879999999989</v>
       </c>
       <c r="F62" s="6">
-        <f t="shared" si="27"/>
-        <v>59.177000000000007</v>
+        <f t="shared" si="17"/>
+        <v>59.025679999999994</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="7">
-        <f t="shared" si="18"/>
-        <v>0.1032499999999601</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I62" s="7">
-        <f t="shared" si="19"/>
-        <v>0.17700000000007776</v>
+        <f t="shared" si="8"/>
+        <v>2.400000000001512E-3</v>
       </c>
       <c r="J62" s="7">
-        <f t="shared" si="20"/>
-        <v>2.950000000001296E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999196234E-4</v>
       </c>
       <c r="K62" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.11800000000005184</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L62" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.19174999999999898</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M62" s="7"/>
       <c r="N62" s="7">
-        <f t="shared" si="6"/>
-        <v>0.29500000000005855</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999977831E-3</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="B63" s="6">
-        <f t="shared" si="23"/>
-        <v>59.940000000000047</v>
+        <f t="shared" si="13"/>
+        <v>60.022880000000001</v>
       </c>
       <c r="C63" s="6">
-        <f t="shared" si="24"/>
-        <v>59.879999999999946</v>
+        <f t="shared" si="14"/>
+        <v>60.022079999999995</v>
       </c>
       <c r="D63" s="6">
-        <f t="shared" si="25"/>
-        <v>60</v>
+        <f t="shared" si="15"/>
+        <v>60.023679999999992</v>
       </c>
       <c r="E63" s="6">
-        <f t="shared" si="26"/>
-        <v>60.120000000000054</v>
+        <f t="shared" si="16"/>
+        <v>60.025279999999995</v>
       </c>
       <c r="F63" s="6">
-        <f t="shared" si="27"/>
-        <v>60.180000000000007</v>
+        <f t="shared" si="17"/>
+        <v>60.026079999999993</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="7">
-        <f t="shared" si="18"/>
-        <v>0.10499999999995424</v>
+        <f t="shared" si="7"/>
+        <v>1.3999999999896318E-3</v>
       </c>
       <c r="I63" s="7">
-        <f t="shared" si="19"/>
-        <v>0.18000000000008498</v>
+        <f t="shared" si="8"/>
+        <v>2.400000000001512E-3</v>
       </c>
       <c r="J63" s="7">
-        <f t="shared" si="20"/>
-        <v>3.0000000000015348E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.000000000061732E-4</v>
       </c>
       <c r="K63" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.12000000000005429</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L63" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.19499999999999318</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M63" s="7"/>
       <c r="N63" s="7">
-        <f t="shared" si="6"/>
-        <v>0.30000000000006111</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999977831E-3</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>61</v>
       </c>
       <c r="B64" s="6">
-        <f t="shared" si="23"/>
-        <v>60.93900000000005</v>
+        <f t="shared" si="13"/>
+        <v>61.023279999999993</v>
       </c>
       <c r="C64" s="6">
-        <f t="shared" si="24"/>
-        <v>60.877999999999943</v>
+        <f t="shared" si="14"/>
+        <v>61.022479999999995</v>
       </c>
       <c r="D64" s="6">
-        <f t="shared" si="25"/>
-        <v>61</v>
+        <f t="shared" si="15"/>
+        <v>61.024079999999998</v>
       </c>
       <c r="E64" s="6">
-        <f t="shared" si="26"/>
-        <v>61.122000000000057</v>
+        <f t="shared" si="16"/>
+        <v>61.025680000000001</v>
       </c>
       <c r="F64" s="6">
-        <f t="shared" si="27"/>
-        <v>61.183000000000007</v>
+        <f t="shared" si="17"/>
+        <v>61.026479999999992</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="7">
-        <f t="shared" si="18"/>
-        <v>0.10674999999994839</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I64" s="7">
-        <f t="shared" si="19"/>
-        <v>0.18300000000007799</v>
+        <f t="shared" si="8"/>
+        <v>2.400000000001512E-3</v>
       </c>
       <c r="J64" s="7">
-        <f t="shared" si="20"/>
-        <v>3.0500000000017735E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999906777E-4</v>
       </c>
       <c r="K64" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.12200000000005673</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000000000033765E-3</v>
       </c>
       <c r="L64" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.19824999999998738</v>
+        <f t="shared" si="11"/>
+        <v>-2.5999999999939405E-3</v>
       </c>
       <c r="M64" s="7"/>
       <c r="N64" s="7">
-        <f t="shared" si="6"/>
-        <v>0.30500000000006366</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999977831E-3</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>62</v>
       </c>
       <c r="B65" s="6">
-        <f t="shared" si="23"/>
-        <v>61.938000000000052</v>
+        <f t="shared" si="13"/>
+        <v>62.023679999999999</v>
       </c>
       <c r="C65" s="6">
-        <f t="shared" si="24"/>
-        <v>61.875999999999941</v>
+        <f t="shared" si="14"/>
+        <v>62.022879999999994</v>
       </c>
       <c r="D65" s="6">
-        <f t="shared" si="25"/>
-        <v>62</v>
+        <f t="shared" si="15"/>
+        <v>62.024479999999997</v>
       </c>
       <c r="E65" s="6">
-        <f t="shared" si="26"/>
-        <v>62.124000000000059</v>
+        <f t="shared" si="16"/>
+        <v>62.02608</v>
       </c>
       <c r="F65" s="6">
-        <f t="shared" si="27"/>
-        <v>62.186000000000007</v>
+        <f t="shared" si="17"/>
+        <v>62.026879999999998</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="7">
-        <f t="shared" si="18"/>
-        <v>0.10849999999994964</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I65" s="7">
-        <f t="shared" si="19"/>
-        <v>0.18600000000008521</v>
+        <f t="shared" si="8"/>
+        <v>2.4000000000086175E-3</v>
       </c>
       <c r="J65" s="7">
-        <f t="shared" si="20"/>
-        <v>3.1000000000013017E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.000000000061732E-4</v>
       </c>
       <c r="K65" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.12400000000005917</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000000000033765E-3</v>
       </c>
       <c r="L65" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.20149999999999579</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M65" s="7"/>
       <c r="N65" s="7">
-        <f t="shared" si="6"/>
-        <v>0.31000000000006622</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000000048885E-3</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>63</v>
       </c>
       <c r="B66" s="6">
-        <f t="shared" si="23"/>
-        <v>62.937000000000054</v>
+        <f t="shared" si="13"/>
+        <v>63.024080000000005</v>
       </c>
       <c r="C66" s="6">
-        <f t="shared" si="24"/>
-        <v>62.873999999999938</v>
+        <f t="shared" si="14"/>
+        <v>63.02328</v>
       </c>
       <c r="D66" s="6">
-        <f t="shared" si="25"/>
-        <v>63</v>
+        <f t="shared" si="15"/>
+        <v>63.024880000000003</v>
       </c>
       <c r="E66" s="6">
-        <f t="shared" si="26"/>
-        <v>63.126000000000062</v>
+        <f t="shared" si="16"/>
+        <v>63.026479999999999</v>
       </c>
       <c r="F66" s="6">
-        <f t="shared" si="27"/>
-        <v>63.189000000000007</v>
+        <f t="shared" si="17"/>
+        <v>63.027279999999998</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="7">
-        <f t="shared" si="18"/>
-        <v>0.11024999999995089</v>
+        <f t="shared" si="7"/>
+        <v>1.3999999999896318E-3</v>
       </c>
       <c r="I66" s="7">
-        <f t="shared" si="19"/>
-        <v>0.18900000000009243</v>
+        <f t="shared" si="8"/>
+        <v>2.400000000001512E-3</v>
       </c>
       <c r="J66" s="7">
-        <f t="shared" si="20"/>
-        <v>3.150000000002251E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999196234E-4</v>
       </c>
       <c r="K66" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.12600000000006162</v>
+        <f t="shared" si="10"/>
+        <v>-1.6000000000033765E-3</v>
       </c>
       <c r="L66" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.2047499999999971</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M66" s="7"/>
       <c r="N66" s="7">
-        <f t="shared" si="6"/>
-        <v>0.31500000000006878</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999977831E-3</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>64</v>
       </c>
       <c r="B67" s="6">
-        <f t="shared" si="23"/>
-        <v>63.936000000000057</v>
+        <f t="shared" si="13"/>
+        <v>64.024479999999997</v>
       </c>
       <c r="C67" s="6">
-        <f t="shared" si="24"/>
-        <v>63.871999999999936</v>
+        <f t="shared" si="14"/>
+        <v>64.023679999999999</v>
       </c>
       <c r="D67" s="6">
-        <f t="shared" si="25"/>
-        <v>64</v>
+        <f t="shared" si="15"/>
+        <v>64.025279999999995</v>
       </c>
       <c r="E67" s="6">
-        <f t="shared" si="26"/>
-        <v>64.128000000000071</v>
+        <f t="shared" si="16"/>
+        <v>64.026880000000006</v>
       </c>
       <c r="F67" s="6">
-        <f t="shared" si="27"/>
-        <v>64.192000000000007</v>
+        <f t="shared" si="17"/>
+        <v>64.027680000000004</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="7">
-        <f t="shared" si="18"/>
-        <v>0.11199999999994503</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I67" s="7">
-        <f t="shared" si="19"/>
-        <v>0.19200000000009965</v>
+        <f t="shared" si="8"/>
+        <v>2.4000000000086175E-3</v>
       </c>
       <c r="J67" s="7">
-        <f t="shared" si="20"/>
-        <v>3.2000000000010687E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999999906777E-4</v>
       </c>
       <c r="K67" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.12800000000007117</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L67" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.2079999999999913</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M67" s="7"/>
       <c r="N67" s="7">
-        <f t="shared" si="6"/>
-        <v>0.32000000000007134</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000000048885E-3</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>65</v>
       </c>
       <c r="B68" s="6">
-        <f t="shared" si="23"/>
-        <v>64.935000000000059</v>
+        <f t="shared" si="13"/>
+        <v>65.024879999999996</v>
       </c>
       <c r="C68" s="6">
-        <f t="shared" si="24"/>
-        <v>64.869999999999933</v>
+        <f t="shared" si="14"/>
+        <v>65.024080000000012</v>
       </c>
       <c r="D68" s="6">
-        <f t="shared" si="25"/>
-        <v>65</v>
+        <f t="shared" si="15"/>
+        <v>65.025679999999994</v>
       </c>
       <c r="E68" s="6">
-        <f t="shared" si="26"/>
-        <v>65.130000000000067</v>
+        <f t="shared" si="16"/>
+        <v>65.027280000000005</v>
       </c>
       <c r="F68" s="6">
-        <f t="shared" si="27"/>
-        <v>65.195000000000007</v>
+        <f t="shared" si="17"/>
+        <v>65.028080000000003</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="7">
-        <f t="shared" si="18"/>
-        <v>0.11374999999993918</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I68" s="7">
-        <f t="shared" si="19"/>
-        <v>0.19500000000009265</v>
+        <f t="shared" si="8"/>
+        <v>2.3999999999801958E-3</v>
       </c>
       <c r="J68" s="7">
-        <f t="shared" si="20"/>
-        <v>3.2500000000013074E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.0000000001327862E-4</v>
       </c>
       <c r="K68" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.13000000000006651</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L68" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.21124999999999261</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M68" s="7"/>
       <c r="N68" s="7">
-        <f t="shared" si="6"/>
-        <v>0.3250000000000739</v>
+        <f t="shared" si="1"/>
+        <v>3.9999999999906777E-3</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>66</v>
       </c>
       <c r="B69" s="6">
-        <f t="shared" ref="B69:B88" si="28">B68+B$3+H68*correction_enabled+1</f>
-        <v>65.934000000000054</v>
+        <f t="shared" ref="B69:B88" si="18">B68+B$3+H68*correction_enabled+1</f>
+        <v>66.025279999999995</v>
       </c>
       <c r="C69" s="6">
-        <f t="shared" ref="C69:C88" si="29">C68+C$3+I68*correction_enabled+1</f>
-        <v>65.867999999999938</v>
+        <f t="shared" ref="C69:C88" si="19">C68+C$3+I68*correction_enabled+1</f>
+        <v>66.024479999999997</v>
       </c>
       <c r="D69" s="6">
-        <f t="shared" ref="D69:D88" si="30">D68+D$3+J68*correction_enabled+1</f>
-        <v>66</v>
+        <f t="shared" ref="D69:D88" si="20">D68+D$3+J68*correction_enabled+1</f>
+        <v>66.026080000000007</v>
       </c>
       <c r="E69" s="6">
-        <f t="shared" ref="E69:E88" si="31">E68+E$3+K68*correction_enabled+1</f>
-        <v>66.132000000000062</v>
+        <f t="shared" ref="E69:E88" si="21">E68+E$3+K68*correction_enabled+1</f>
+        <v>66.027680000000004</v>
       </c>
       <c r="F69" s="6">
-        <f t="shared" ref="F69:F88" si="32">F68+F$3+L68*correction_enabled+1</f>
-        <v>66.198000000000008</v>
+        <f t="shared" ref="F69:F88" si="22">F68+F$3+L68*correction_enabled+1</f>
+        <v>66.028480000000002</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="7">
-        <f t="shared" si="18"/>
-        <v>0.11549999999994043</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I69" s="7">
-        <f t="shared" si="19"/>
-        <v>0.19800000000009277</v>
+        <f t="shared" si="8"/>
+        <v>2.4000000000086175E-3</v>
       </c>
       <c r="J69" s="7">
-        <f t="shared" si="20"/>
-        <v>3.3000000000015461E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.9999999998485691E-4</v>
       </c>
       <c r="K69" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.13200000000006185</v>
+        <f t="shared" si="10"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L69" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.21449999999998681</v>
+        <f t="shared" si="11"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M69" s="7"/>
       <c r="N69" s="7">
-        <f t="shared" ref="N69:N87" si="33">MAX(B69:F69)-MIN(B69:F69)</f>
-        <v>0.33000000000006935</v>
+        <f t="shared" ref="N69:N87" si="23">MAX(B69:F69)-MIN(B69:F69)</f>
+        <v>4.0000000000048885E-3</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>67</v>
       </c>
       <c r="B70" s="6">
-        <f t="shared" si="28"/>
-        <v>66.93300000000005</v>
+        <f t="shared" si="18"/>
+        <v>67.025679999999994</v>
       </c>
       <c r="C70" s="6">
-        <f t="shared" si="29"/>
-        <v>66.865999999999943</v>
+        <f t="shared" si="19"/>
+        <v>67.02488000000001</v>
       </c>
       <c r="D70" s="6">
-        <f t="shared" si="30"/>
-        <v>67</v>
+        <f t="shared" si="20"/>
+        <v>67.026479999999992</v>
       </c>
       <c r="E70" s="6">
-        <f t="shared" si="31"/>
-        <v>67.134000000000057</v>
+        <f t="shared" si="21"/>
+        <v>67.028080000000003</v>
       </c>
       <c r="F70" s="6">
-        <f t="shared" si="32"/>
-        <v>67.201000000000008</v>
+        <f t="shared" si="22"/>
+        <v>67.028880000000001</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="7">
-        <f t="shared" si="18"/>
-        <v>0.11724999999995589</v>
+        <f t="shared" ref="H70:H88" si="24">AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;H$2,$B70:$F70)-B70</f>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I70" s="7">
-        <f t="shared" si="19"/>
-        <v>0.20100000000009288</v>
+        <f t="shared" ref="I70:I88" si="25">AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;I$2,$B70:$F70)-C70</f>
+        <v>2.3999999999944066E-3</v>
       </c>
       <c r="J70" s="7">
-        <f t="shared" si="20"/>
-        <v>3.3500000000017849E-2</v>
+        <f t="shared" ref="J70:J88" si="26">AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;J$2,$B70:$F70)-D70</f>
+        <v>4.0000000001327862E-4</v>
       </c>
       <c r="K70" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.13400000000005718</v>
+        <f t="shared" ref="K70:K88" si="27">AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;K$2,$B70:$F70)-E70</f>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L70" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.21774999999999523</v>
+        <f t="shared" ref="L70:L88" si="28">AVERAGEIF($B$2:$F$2,"&lt;&gt;"&amp;L$2,$B70:$F70)-F70</f>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M70" s="7"/>
       <c r="N70" s="7">
-        <f t="shared" si="33"/>
-        <v>0.3350000000000648</v>
+        <f t="shared" si="23"/>
+        <v>3.9999999999906777E-3</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" ref="A71:A88" si="34">A70+1</f>
+        <f t="shared" ref="A71:A88" si="29">A70+1</f>
         <v>68</v>
       </c>
       <c r="B71" s="6">
-        <f t="shared" si="28"/>
-        <v>67.932000000000045</v>
+        <f t="shared" si="18"/>
+        <v>68.026079999999993</v>
       </c>
       <c r="C71" s="6">
-        <f t="shared" si="29"/>
-        <v>67.863999999999947</v>
+        <f t="shared" si="19"/>
+        <v>68.025280000000009</v>
       </c>
       <c r="D71" s="6">
-        <f t="shared" si="30"/>
-        <v>68</v>
+        <f t="shared" si="20"/>
+        <v>68.026880000000006</v>
       </c>
       <c r="E71" s="6">
-        <f t="shared" si="31"/>
-        <v>68.136000000000053</v>
+        <f t="shared" si="21"/>
+        <v>68.028480000000002</v>
       </c>
       <c r="F71" s="6">
-        <f t="shared" si="32"/>
-        <v>68.204000000000008</v>
+        <f t="shared" si="22"/>
+        <v>68.02928</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="7">
-        <f t="shared" si="18"/>
-        <v>0.11899999999995714</v>
+        <f t="shared" si="24"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I71" s="7">
-        <f t="shared" si="19"/>
-        <v>0.20400000000007878</v>
+        <f t="shared" si="25"/>
+        <v>2.3999999999944066E-3</v>
       </c>
       <c r="J71" s="7">
-        <f t="shared" si="20"/>
-        <v>3.4000000000020236E-2</v>
+        <f t="shared" si="26"/>
+        <v>3.9999999998485691E-4</v>
       </c>
       <c r="K71" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.13600000000005252</v>
+        <f t="shared" si="27"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L71" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.22100000000000364</v>
+        <f t="shared" si="28"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M71" s="7"/>
       <c r="N71" s="7">
-        <f t="shared" si="33"/>
-        <v>0.34000000000006025</v>
+        <f t="shared" si="23"/>
+        <v>3.9999999999906777E-3</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>69</v>
       </c>
       <c r="B72" s="6">
-        <f t="shared" si="28"/>
-        <v>68.93100000000004</v>
+        <f t="shared" si="18"/>
+        <v>69.026479999999992</v>
       </c>
       <c r="C72" s="6">
-        <f t="shared" si="29"/>
-        <v>68.861999999999952</v>
+        <f t="shared" si="19"/>
+        <v>69.025680000000008</v>
       </c>
       <c r="D72" s="6">
-        <f t="shared" si="30"/>
-        <v>69</v>
+        <f t="shared" si="20"/>
+        <v>69.02727999999999</v>
       </c>
       <c r="E72" s="6">
-        <f t="shared" si="31"/>
-        <v>69.138000000000048</v>
+        <f t="shared" si="21"/>
+        <v>69.028880000000001</v>
       </c>
       <c r="F72" s="6">
-        <f t="shared" si="32"/>
-        <v>69.207000000000008</v>
+        <f t="shared" si="22"/>
+        <v>69.029679999999999</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="7">
-        <f t="shared" si="18"/>
-        <v>0.12074999999995839</v>
+        <f t="shared" si="24"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I72" s="7">
-        <f t="shared" si="19"/>
-        <v>0.20700000000006469</v>
+        <f t="shared" si="25"/>
+        <v>2.3999999999801958E-3</v>
       </c>
       <c r="J72" s="7">
-        <f t="shared" si="20"/>
-        <v>3.4500000000008413E-2</v>
+        <f t="shared" si="26"/>
+        <v>4.0000000001327862E-4</v>
       </c>
       <c r="K72" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.13800000000004786</v>
+        <f t="shared" si="27"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L72" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.22424999999999784</v>
+        <f t="shared" si="28"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M72" s="7"/>
       <c r="N72" s="7">
-        <f t="shared" si="33"/>
-        <v>0.34500000000005571</v>
+        <f t="shared" si="23"/>
+        <v>3.9999999999906777E-3</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>70</v>
       </c>
       <c r="B73" s="6">
-        <f t="shared" si="28"/>
-        <v>69.930000000000035</v>
+        <f t="shared" si="18"/>
+        <v>70.026879999999991</v>
       </c>
       <c r="C73" s="6">
-        <f t="shared" si="29"/>
-        <v>69.859999999999957</v>
+        <f t="shared" si="19"/>
+        <v>70.026079999999993</v>
       </c>
       <c r="D73" s="6">
-        <f t="shared" si="30"/>
-        <v>70</v>
+        <f t="shared" si="20"/>
+        <v>70.027680000000004</v>
       </c>
       <c r="E73" s="6">
-        <f t="shared" si="31"/>
-        <v>70.140000000000043</v>
+        <f t="shared" si="21"/>
+        <v>70.02928</v>
       </c>
       <c r="F73" s="6">
-        <f t="shared" si="32"/>
-        <v>70.210000000000008</v>
+        <f t="shared" si="22"/>
+        <v>70.030079999999998</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="7">
-        <f t="shared" si="18"/>
-        <v>0.12249999999997385</v>
+        <f t="shared" si="24"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I73" s="7">
-        <f t="shared" si="19"/>
-        <v>0.2100000000000648</v>
+        <f t="shared" si="25"/>
+        <v>2.4000000000086175E-3</v>
       </c>
       <c r="J73" s="7">
-        <f t="shared" si="20"/>
-        <v>3.50000000000108E-2</v>
+        <f t="shared" si="26"/>
+        <v>3.9999999998485691E-4</v>
       </c>
       <c r="K73" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.1400000000000432</v>
+        <f t="shared" si="27"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L73" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.22749999999999204</v>
+        <f t="shared" si="28"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M73" s="7"/>
       <c r="N73" s="7">
-        <f t="shared" si="33"/>
-        <v>0.35000000000005116</v>
+        <f t="shared" si="23"/>
+        <v>4.0000000000048885E-3</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>71</v>
       </c>
       <c r="B74" s="6">
-        <f t="shared" si="28"/>
-        <v>70.92900000000003</v>
+        <f t="shared" si="18"/>
+        <v>71.02727999999999</v>
       </c>
       <c r="C74" s="6">
-        <f t="shared" si="29"/>
-        <v>70.857999999999961</v>
+        <f t="shared" si="19"/>
+        <v>71.026480000000006</v>
       </c>
       <c r="D74" s="6">
-        <f t="shared" si="30"/>
-        <v>71</v>
+        <f t="shared" si="20"/>
+        <v>71.028079999999989</v>
       </c>
       <c r="E74" s="6">
-        <f t="shared" si="31"/>
-        <v>71.142000000000039</v>
+        <f t="shared" si="21"/>
+        <v>71.029679999999999</v>
       </c>
       <c r="F74" s="6">
-        <f t="shared" si="32"/>
-        <v>71.213000000000008</v>
+        <f t="shared" si="22"/>
+        <v>71.030479999999997</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="7">
-        <f t="shared" si="18"/>
-        <v>0.1242499999999751</v>
+        <f t="shared" si="24"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I74" s="7">
-        <f t="shared" si="19"/>
-        <v>0.21300000000006492</v>
+        <f t="shared" si="25"/>
+        <v>2.3999999999944066E-3</v>
       </c>
       <c r="J74" s="7">
-        <f t="shared" si="20"/>
-        <v>3.5500000000013188E-2</v>
+        <f t="shared" si="26"/>
+        <v>4.0000000001327862E-4</v>
       </c>
       <c r="K74" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.14200000000003854</v>
+        <f t="shared" si="27"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L74" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.23075000000000045</v>
+        <f t="shared" si="28"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M74" s="7"/>
       <c r="N74" s="7">
-        <f t="shared" si="33"/>
-        <v>0.35500000000004661</v>
+        <f t="shared" si="23"/>
+        <v>3.9999999999906777E-3</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>72</v>
       </c>
       <c r="B75" s="6">
-        <f t="shared" si="28"/>
-        <v>71.928000000000026</v>
+        <f t="shared" si="18"/>
+        <v>72.027679999999989</v>
       </c>
       <c r="C75" s="6">
-        <f t="shared" si="29"/>
-        <v>71.855999999999966</v>
+        <f t="shared" si="19"/>
+        <v>72.026880000000006</v>
       </c>
       <c r="D75" s="6">
-        <f t="shared" si="30"/>
-        <v>72</v>
+        <f t="shared" si="20"/>
+        <v>72.028480000000002</v>
       </c>
       <c r="E75" s="6">
-        <f t="shared" si="31"/>
-        <v>72.144000000000034</v>
+        <f t="shared" si="21"/>
+        <v>72.030079999999998</v>
       </c>
       <c r="F75" s="6">
-        <f t="shared" si="32"/>
-        <v>72.216000000000008</v>
+        <f t="shared" si="22"/>
+        <v>72.030879999999996</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="7">
-        <f t="shared" si="18"/>
-        <v>0.12599999999997635</v>
+        <f t="shared" si="24"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I75" s="7">
-        <f t="shared" si="19"/>
-        <v>0.21600000000005082</v>
+        <f t="shared" si="25"/>
+        <v>2.3999999999944066E-3</v>
       </c>
       <c r="J75" s="7">
-        <f t="shared" si="20"/>
-        <v>3.6000000000001364E-2</v>
+        <f t="shared" si="26"/>
+        <v>3.9999999998485691E-4</v>
       </c>
       <c r="K75" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.14400000000003388</v>
+        <f t="shared" si="27"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L75" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.23400000000000887</v>
+        <f t="shared" si="28"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M75" s="7"/>
       <c r="N75" s="7">
-        <f t="shared" si="33"/>
-        <v>0.36000000000004206</v>
+        <f t="shared" si="23"/>
+        <v>3.9999999999906777E-3</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>73</v>
       </c>
       <c r="B76" s="6">
-        <f t="shared" si="28"/>
-        <v>72.927000000000021</v>
+        <f t="shared" si="18"/>
+        <v>73.028079999999989</v>
       </c>
       <c r="C76" s="6">
-        <f t="shared" si="29"/>
-        <v>72.853999999999971</v>
+        <f t="shared" si="19"/>
+        <v>73.027280000000005</v>
       </c>
       <c r="D76" s="6">
-        <f t="shared" si="30"/>
-        <v>73</v>
+        <f t="shared" si="20"/>
+        <v>73.028879999999987</v>
       </c>
       <c r="E76" s="6">
-        <f t="shared" si="31"/>
-        <v>73.146000000000029</v>
+        <f t="shared" si="21"/>
+        <v>73.030479999999997</v>
       </c>
       <c r="F76" s="6">
-        <f t="shared" si="32"/>
-        <v>73.219000000000008</v>
+        <f t="shared" si="22"/>
+        <v>73.031279999999995</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="7">
-        <f t="shared" si="18"/>
-        <v>0.1277499999999776</v>
+        <f t="shared" si="24"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I76" s="7">
-        <f t="shared" si="19"/>
-        <v>0.21900000000003672</v>
+        <f t="shared" si="25"/>
+        <v>2.3999999999801958E-3</v>
       </c>
       <c r="J76" s="7">
-        <f t="shared" si="20"/>
-        <v>3.6500000000003752E-2</v>
+        <f t="shared" si="26"/>
+        <v>4.0000000001327862E-4</v>
       </c>
       <c r="K76" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.14600000000002922</v>
+        <f t="shared" si="27"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L76" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.23725000000000307</v>
+        <f t="shared" si="28"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M76" s="7"/>
       <c r="N76" s="7">
-        <f t="shared" si="33"/>
-        <v>0.36500000000003752</v>
+        <f t="shared" si="23"/>
+        <v>3.9999999999906777E-3</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>74</v>
       </c>
       <c r="B77" s="6">
-        <f t="shared" si="28"/>
-        <v>73.926000000000016</v>
+        <f t="shared" si="18"/>
+        <v>74.028479999999988</v>
       </c>
       <c r="C77" s="6">
-        <f t="shared" si="29"/>
-        <v>73.851999999999975</v>
+        <f t="shared" si="19"/>
+        <v>74.027679999999989</v>
       </c>
       <c r="D77" s="6">
-        <f t="shared" si="30"/>
-        <v>74</v>
+        <f t="shared" si="20"/>
+        <v>74.02928</v>
       </c>
       <c r="E77" s="6">
-        <f t="shared" si="31"/>
-        <v>74.148000000000025</v>
+        <f t="shared" si="21"/>
+        <v>74.030879999999996</v>
       </c>
       <c r="F77" s="6">
-        <f t="shared" si="32"/>
-        <v>74.222000000000008</v>
+        <f t="shared" si="22"/>
+        <v>74.031679999999994</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="7">
-        <f t="shared" si="18"/>
-        <v>0.12949999999997885</v>
+        <f t="shared" si="24"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I77" s="7">
-        <f t="shared" si="19"/>
-        <v>0.22200000000003683</v>
+        <f t="shared" si="25"/>
+        <v>2.4000000000086175E-3</v>
       </c>
       <c r="J77" s="7">
-        <f t="shared" si="20"/>
-        <v>3.7000000000006139E-2</v>
+        <f t="shared" si="26"/>
+        <v>3.9999999998485691E-4</v>
       </c>
       <c r="K77" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.14800000000002456</v>
+        <f t="shared" si="27"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L77" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.24049999999999727</v>
+        <f t="shared" si="28"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M77" s="7"/>
       <c r="N77" s="7">
-        <f t="shared" si="33"/>
-        <v>0.37000000000003297</v>
+        <f t="shared" si="23"/>
+        <v>4.0000000000048885E-3</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>75</v>
       </c>
       <c r="B78" s="6">
-        <f t="shared" si="28"/>
-        <v>74.925000000000011</v>
+        <f t="shared" si="18"/>
+        <v>75.028879999999987</v>
       </c>
       <c r="C78" s="6">
-        <f t="shared" si="29"/>
-        <v>74.84999999999998</v>
+        <f t="shared" si="19"/>
+        <v>75.028080000000003</v>
       </c>
       <c r="D78" s="6">
-        <f t="shared" si="30"/>
-        <v>75</v>
+        <f t="shared" si="20"/>
+        <v>75.029679999999985</v>
       </c>
       <c r="E78" s="6">
-        <f t="shared" si="31"/>
-        <v>75.15000000000002</v>
+        <f t="shared" si="21"/>
+        <v>75.031279999999995</v>
       </c>
       <c r="F78" s="6">
-        <f t="shared" si="32"/>
-        <v>75.225000000000009</v>
+        <f t="shared" si="22"/>
+        <v>75.032079999999993</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="7">
-        <f t="shared" si="18"/>
-        <v>0.13124999999999432</v>
+        <f t="shared" si="24"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I78" s="7">
-        <f t="shared" si="19"/>
-        <v>0.22500000000003695</v>
+        <f t="shared" si="25"/>
+        <v>2.3999999999944066E-3</v>
       </c>
       <c r="J78" s="7">
-        <f t="shared" si="20"/>
-        <v>3.7500000000008527E-2</v>
+        <f t="shared" si="26"/>
+        <v>4.0000000001327862E-4</v>
       </c>
       <c r="K78" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.1500000000000199</v>
+        <f t="shared" si="27"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L78" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.24375000000000568</v>
+        <f t="shared" si="28"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M78" s="7"/>
       <c r="N78" s="7">
-        <f t="shared" si="33"/>
-        <v>0.37500000000002842</v>
+        <f t="shared" si="23"/>
+        <v>3.9999999999906777E-3</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>76</v>
       </c>
       <c r="B79" s="6">
-        <f t="shared" si="28"/>
-        <v>75.924000000000007</v>
+        <f t="shared" si="18"/>
+        <v>76.029279999999986</v>
       </c>
       <c r="C79" s="6">
-        <f t="shared" si="29"/>
-        <v>75.847999999999985</v>
+        <f t="shared" si="19"/>
+        <v>76.028480000000002</v>
       </c>
       <c r="D79" s="6">
-        <f t="shared" si="30"/>
-        <v>76</v>
+        <f t="shared" si="20"/>
+        <v>76.030079999999998</v>
       </c>
       <c r="E79" s="6">
-        <f t="shared" si="31"/>
-        <v>76.152000000000015</v>
+        <f t="shared" si="21"/>
+        <v>76.031679999999994</v>
       </c>
       <c r="F79" s="6">
-        <f t="shared" si="32"/>
-        <v>76.228000000000009</v>
+        <f t="shared" si="22"/>
+        <v>76.032479999999993</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="7">
-        <f t="shared" si="18"/>
-        <v>0.13299999999999557</v>
+        <f t="shared" si="24"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I79" s="7">
-        <f t="shared" si="19"/>
-        <v>0.22800000000002285</v>
+        <f t="shared" si="25"/>
+        <v>2.3999999999944066E-3</v>
       </c>
       <c r="J79" s="7">
-        <f t="shared" si="20"/>
-        <v>3.8000000000010914E-2</v>
+        <f t="shared" si="26"/>
+        <v>3.9999999998485691E-4</v>
       </c>
       <c r="K79" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.15200000000001523</v>
+        <f t="shared" si="27"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L79" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.2470000000000141</v>
+        <f t="shared" si="28"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M79" s="7"/>
       <c r="N79" s="7">
-        <f t="shared" si="33"/>
-        <v>0.38000000000002387</v>
+        <f t="shared" si="23"/>
+        <v>3.9999999999906777E-3</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>77</v>
       </c>
       <c r="B80" s="6">
-        <f t="shared" si="28"/>
-        <v>76.923000000000002</v>
+        <f t="shared" si="18"/>
+        <v>77.029679999999985</v>
       </c>
       <c r="C80" s="6">
-        <f t="shared" si="29"/>
-        <v>76.845999999999989</v>
+        <f t="shared" si="19"/>
+        <v>77.028880000000001</v>
       </c>
       <c r="D80" s="6">
-        <f t="shared" si="30"/>
-        <v>77</v>
+        <f t="shared" si="20"/>
+        <v>77.030479999999983</v>
       </c>
       <c r="E80" s="6">
-        <f t="shared" si="31"/>
-        <v>77.154000000000011</v>
+        <f t="shared" si="21"/>
+        <v>77.032079999999993</v>
       </c>
       <c r="F80" s="6">
-        <f t="shared" si="32"/>
-        <v>77.231000000000009</v>
+        <f t="shared" si="22"/>
+        <v>77.032879999999992</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="7">
-        <f t="shared" si="18"/>
-        <v>0.13474999999999682</v>
+        <f t="shared" si="24"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I80" s="7">
-        <f t="shared" si="19"/>
-        <v>0.23100000000000875</v>
+        <f t="shared" si="25"/>
+        <v>2.3999999999801958E-3</v>
       </c>
       <c r="J80" s="7">
-        <f t="shared" si="20"/>
-        <v>3.8499999999999091E-2</v>
+        <f t="shared" si="26"/>
+        <v>4.0000000001327862E-4</v>
       </c>
       <c r="K80" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.15400000000001057</v>
+        <f t="shared" si="27"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L80" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.2502500000000083</v>
+        <f t="shared" si="28"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M80" s="7"/>
       <c r="N80" s="7">
-        <f t="shared" si="33"/>
-        <v>0.38500000000001933</v>
+        <f t="shared" si="23"/>
+        <v>3.9999999999906777E-3</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>78</v>
       </c>
       <c r="B81" s="6">
-        <f t="shared" si="28"/>
-        <v>77.921999999999997</v>
+        <f t="shared" si="18"/>
+        <v>78.030079999999984</v>
       </c>
       <c r="C81" s="6">
-        <f t="shared" si="29"/>
-        <v>77.843999999999994</v>
+        <f t="shared" si="19"/>
+        <v>78.029279999999986</v>
       </c>
       <c r="D81" s="6">
-        <f t="shared" si="30"/>
-        <v>78</v>
+        <f t="shared" si="20"/>
+        <v>78.030879999999996</v>
       </c>
       <c r="E81" s="6">
-        <f t="shared" si="31"/>
-        <v>78.156000000000006</v>
+        <f t="shared" si="21"/>
+        <v>78.032479999999993</v>
       </c>
       <c r="F81" s="6">
-        <f t="shared" si="32"/>
-        <v>78.234000000000009</v>
+        <f t="shared" si="22"/>
+        <v>78.033279999999991</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="7">
-        <f t="shared" si="18"/>
-        <v>0.13650000000001228</v>
+        <f t="shared" si="24"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I81" s="7">
-        <f t="shared" si="19"/>
-        <v>0.23400000000000887</v>
+        <f t="shared" si="25"/>
+        <v>2.4000000000086175E-3</v>
       </c>
       <c r="J81" s="7">
-        <f t="shared" si="20"/>
-        <v>3.9000000000001478E-2</v>
+        <f t="shared" si="26"/>
+        <v>3.9999999998485691E-4</v>
       </c>
       <c r="K81" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.15600000000000591</v>
+        <f t="shared" si="27"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L81" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.2535000000000025</v>
+        <f t="shared" si="28"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M81" s="7"/>
       <c r="N81" s="7">
-        <f t="shared" si="33"/>
-        <v>0.39000000000001478</v>
+        <f t="shared" si="23"/>
+        <v>4.0000000000048885E-3</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>79</v>
       </c>
       <c r="B82" s="6">
-        <f t="shared" si="28"/>
-        <v>78.920999999999992</v>
+        <f t="shared" si="18"/>
+        <v>79.030479999999983</v>
       </c>
       <c r="C82" s="6">
-        <f t="shared" si="29"/>
-        <v>78.841999999999999</v>
+        <f t="shared" si="19"/>
+        <v>79.029679999999999</v>
       </c>
       <c r="D82" s="6">
-        <f t="shared" si="30"/>
-        <v>79</v>
+        <f t="shared" si="20"/>
+        <v>79.031279999999981</v>
       </c>
       <c r="E82" s="6">
-        <f t="shared" si="31"/>
-        <v>79.158000000000001</v>
+        <f t="shared" si="21"/>
+        <v>79.032879999999992</v>
       </c>
       <c r="F82" s="6">
-        <f t="shared" si="32"/>
-        <v>79.237000000000009</v>
+        <f t="shared" si="22"/>
+        <v>79.03367999999999</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="7">
-        <f t="shared" si="18"/>
-        <v>0.13825000000001353</v>
+        <f t="shared" si="24"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I82" s="7">
-        <f t="shared" si="19"/>
-        <v>0.23700000000000898</v>
+        <f t="shared" si="25"/>
+        <v>2.3999999999944066E-3</v>
       </c>
       <c r="J82" s="7">
-        <f t="shared" si="20"/>
-        <v>3.9500000000003865E-2</v>
+        <f t="shared" si="26"/>
+        <v>4.0000000001327862E-4</v>
       </c>
       <c r="K82" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.15800000000000125</v>
+        <f t="shared" si="27"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L82" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.25675000000001091</v>
+        <f t="shared" si="28"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M82" s="7"/>
       <c r="N82" s="7">
-        <f t="shared" si="33"/>
-        <v>0.39500000000001023</v>
+        <f t="shared" si="23"/>
+        <v>3.9999999999906777E-3</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>80</v>
       </c>
       <c r="B83" s="6">
-        <f t="shared" si="28"/>
-        <v>79.919999999999987</v>
+        <f t="shared" si="18"/>
+        <v>80.030879999999982</v>
       </c>
       <c r="C83" s="6">
-        <f t="shared" si="29"/>
-        <v>79.84</v>
+        <f t="shared" si="19"/>
+        <v>80.030079999999998</v>
       </c>
       <c r="D83" s="6">
-        <f t="shared" si="30"/>
-        <v>80</v>
+        <f t="shared" si="20"/>
+        <v>80.031679999999994</v>
       </c>
       <c r="E83" s="6">
-        <f t="shared" si="31"/>
-        <v>80.16</v>
+        <f t="shared" si="21"/>
+        <v>80.033279999999991</v>
       </c>
       <c r="F83" s="6">
-        <f t="shared" si="32"/>
-        <v>80.240000000000009</v>
+        <f t="shared" si="22"/>
+        <v>80.034079999999989</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="7">
-        <f t="shared" si="18"/>
-        <v>0.14000000000001478</v>
+        <f t="shared" si="24"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I83" s="7">
-        <f t="shared" si="19"/>
-        <v>0.23999999999999488</v>
+        <f t="shared" si="25"/>
+        <v>2.3999999999944066E-3</v>
       </c>
       <c r="J83" s="7">
-        <f t="shared" si="20"/>
-        <v>3.9999999999992042E-2</v>
+        <f t="shared" si="26"/>
+        <v>3.9999999998485691E-4</v>
       </c>
       <c r="K83" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.15999999999999659</v>
+        <f t="shared" si="27"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L83" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.26000000000001933</v>
+        <f t="shared" si="28"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M83" s="7"/>
       <c r="N83" s="7">
-        <f t="shared" si="33"/>
-        <v>0.40000000000000568</v>
+        <f t="shared" si="23"/>
+        <v>3.9999999999906777E-3</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>81</v>
       </c>
       <c r="B84" s="6">
-        <f t="shared" si="28"/>
-        <v>80.918999999999983</v>
+        <f t="shared" si="18"/>
+        <v>81.031279999999981</v>
       </c>
       <c r="C84" s="6">
-        <f t="shared" si="29"/>
-        <v>80.838000000000008</v>
+        <f t="shared" si="19"/>
+        <v>81.030479999999997</v>
       </c>
       <c r="D84" s="6">
-        <f t="shared" si="30"/>
-        <v>81</v>
+        <f t="shared" si="20"/>
+        <v>81.032079999999979</v>
       </c>
       <c r="E84" s="6">
-        <f t="shared" si="31"/>
-        <v>81.161999999999992</v>
+        <f t="shared" si="21"/>
+        <v>81.03367999999999</v>
       </c>
       <c r="F84" s="6">
-        <f t="shared" si="32"/>
-        <v>81.243000000000009</v>
+        <f t="shared" si="22"/>
+        <v>81.034479999999988</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="7">
-        <f t="shared" si="18"/>
-        <v>0.14175000000001603</v>
+        <f t="shared" si="24"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I84" s="7">
-        <f t="shared" si="19"/>
-        <v>0.24299999999998079</v>
+        <f t="shared" si="25"/>
+        <v>2.3999999999801958E-3</v>
       </c>
       <c r="J84" s="7">
-        <f t="shared" si="20"/>
-        <v>4.0499999999994429E-2</v>
+        <f t="shared" si="26"/>
+        <v>4.0000000001327862E-4</v>
       </c>
       <c r="K84" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.16199999999999193</v>
+        <f t="shared" si="27"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L84" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.26325000000001353</v>
+        <f t="shared" si="28"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M84" s="7"/>
       <c r="N84" s="7">
-        <f t="shared" si="33"/>
-        <v>0.40500000000000114</v>
+        <f t="shared" si="23"/>
+        <v>3.9999999999906777E-3</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>82</v>
       </c>
       <c r="B85" s="6">
-        <f t="shared" si="28"/>
-        <v>81.917999999999978</v>
+        <f t="shared" si="18"/>
+        <v>82.03167999999998</v>
       </c>
       <c r="C85" s="6">
-        <f t="shared" si="29"/>
-        <v>81.836000000000013</v>
+        <f t="shared" si="19"/>
+        <v>82.030879999999982</v>
       </c>
       <c r="D85" s="6">
-        <f t="shared" si="30"/>
-        <v>82</v>
+        <f t="shared" si="20"/>
+        <v>82.032479999999993</v>
       </c>
       <c r="E85" s="6">
-        <f t="shared" si="31"/>
-        <v>82.163999999999987</v>
+        <f t="shared" si="21"/>
+        <v>82.034079999999989</v>
       </c>
       <c r="F85" s="6">
-        <f t="shared" si="32"/>
-        <v>82.246000000000009</v>
+        <f t="shared" si="22"/>
+        <v>82.034879999999987</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="7">
-        <f t="shared" si="18"/>
-        <v>0.14350000000001728</v>
+        <f t="shared" si="24"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I85" s="7">
-        <f t="shared" si="19"/>
-        <v>0.2459999999999809</v>
+        <f t="shared" si="25"/>
+        <v>2.4000000000086175E-3</v>
       </c>
       <c r="J85" s="7">
-        <f t="shared" si="20"/>
-        <v>4.0999999999996817E-2</v>
+        <f t="shared" si="26"/>
+        <v>3.9999999998485691E-4</v>
       </c>
       <c r="K85" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.16399999999998727</v>
+        <f t="shared" si="27"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L85" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.26650000000000773</v>
+        <f t="shared" si="28"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M85" s="7"/>
       <c r="N85" s="7">
-        <f t="shared" si="33"/>
-        <v>0.40999999999999659</v>
+        <f t="shared" si="23"/>
+        <v>4.0000000000048885E-3</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>83</v>
       </c>
       <c r="B86" s="6">
-        <f t="shared" si="28"/>
-        <v>82.916999999999973</v>
+        <f t="shared" si="18"/>
+        <v>83.032079999999979</v>
       </c>
       <c r="C86" s="6">
-        <f t="shared" si="29"/>
-        <v>82.834000000000017</v>
+        <f t="shared" si="19"/>
+        <v>83.031279999999995</v>
       </c>
       <c r="D86" s="6">
-        <f t="shared" si="30"/>
-        <v>83</v>
+        <f t="shared" si="20"/>
+        <v>83.032879999999977</v>
       </c>
       <c r="E86" s="6">
-        <f t="shared" si="31"/>
-        <v>83.165999999999983</v>
+        <f t="shared" si="21"/>
+        <v>83.034479999999988</v>
       </c>
       <c r="F86" s="6">
-        <f t="shared" si="32"/>
-        <v>83.249000000000009</v>
+        <f t="shared" si="22"/>
+        <v>83.035279999999986</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="7">
-        <f t="shared" si="18"/>
-        <v>0.14525000000003274</v>
+        <f t="shared" si="24"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I86" s="7">
-        <f t="shared" si="19"/>
-        <v>0.24899999999998101</v>
+        <f t="shared" si="25"/>
+        <v>2.3999999999944066E-3</v>
       </c>
       <c r="J86" s="7">
-        <f t="shared" si="20"/>
-        <v>4.1499999999999204E-2</v>
+        <f t="shared" si="26"/>
+        <v>4.0000000001327862E-4</v>
       </c>
       <c r="K86" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.16599999999998261</v>
+        <f t="shared" si="27"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L86" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.26975000000001614</v>
+        <f t="shared" si="28"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M86" s="7"/>
       <c r="N86" s="7">
-        <f t="shared" si="33"/>
-        <v>0.41499999999999204</v>
+        <f t="shared" si="23"/>
+        <v>3.9999999999906777E-3</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>84</v>
       </c>
       <c r="B87" s="6">
-        <f t="shared" si="28"/>
-        <v>83.915999999999968</v>
+        <f t="shared" si="18"/>
+        <v>84.032479999999978</v>
       </c>
       <c r="C87" s="6">
-        <f t="shared" si="29"/>
-        <v>83.832000000000022</v>
+        <f t="shared" si="19"/>
+        <v>84.031679999999994</v>
       </c>
       <c r="D87" s="6">
-        <f t="shared" si="30"/>
-        <v>84</v>
+        <f t="shared" si="20"/>
+        <v>84.033279999999991</v>
       </c>
       <c r="E87" s="6">
-        <f t="shared" si="31"/>
-        <v>84.167999999999978</v>
+        <f t="shared" si="21"/>
+        <v>84.034879999999987</v>
       </c>
       <c r="F87" s="6">
-        <f t="shared" si="32"/>
-        <v>84.25200000000001</v>
+        <f t="shared" si="22"/>
+        <v>84.035679999999985</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="7">
-        <f t="shared" si="18"/>
-        <v>0.14700000000003399</v>
+        <f t="shared" si="24"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I87" s="7">
-        <f t="shared" si="19"/>
-        <v>0.25199999999996692</v>
+        <f t="shared" si="25"/>
+        <v>2.3999999999944066E-3</v>
       </c>
       <c r="J87" s="7">
-        <f t="shared" si="20"/>
-        <v>4.2000000000001592E-2</v>
+        <f t="shared" si="26"/>
+        <v>3.9999999998485691E-4</v>
       </c>
       <c r="K87" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.16799999999997794</v>
+        <f t="shared" si="27"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L87" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.27300000000002456</v>
+        <f t="shared" si="28"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M87" s="7"/>
       <c r="N87" s="7">
-        <f t="shared" si="33"/>
-        <v>0.41999999999998749</v>
+        <f t="shared" si="23"/>
+        <v>3.9999999999906777E-3</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>85</v>
       </c>
       <c r="B88" s="6">
-        <f t="shared" si="28"/>
-        <v>84.914999999999964</v>
+        <f t="shared" si="18"/>
+        <v>85.032879999999977</v>
       </c>
       <c r="C88" s="6">
-        <f t="shared" si="29"/>
-        <v>84.830000000000027</v>
+        <f t="shared" si="19"/>
+        <v>85.032079999999993</v>
       </c>
       <c r="D88" s="6">
-        <f t="shared" si="30"/>
-        <v>85</v>
+        <f t="shared" si="20"/>
+        <v>85.033679999999976</v>
       </c>
       <c r="E88" s="6">
-        <f t="shared" si="31"/>
-        <v>85.169999999999973</v>
+        <f t="shared" si="21"/>
+        <v>85.035279999999986</v>
       </c>
       <c r="F88" s="6">
-        <f t="shared" si="32"/>
-        <v>85.25500000000001</v>
+        <f t="shared" si="22"/>
+        <v>85.036079999999984</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="7">
-        <f t="shared" si="18"/>
-        <v>0.14875000000003524</v>
+        <f t="shared" si="24"/>
+        <v>1.4000000000038426E-3</v>
       </c>
       <c r="I88" s="7">
-        <f t="shared" si="19"/>
-        <v>0.25499999999995282</v>
+        <f t="shared" si="25"/>
+        <v>2.3999999999801958E-3</v>
       </c>
       <c r="J88" s="7">
-        <f t="shared" si="20"/>
-        <v>4.2499999999989768E-2</v>
+        <f t="shared" si="26"/>
+        <v>4.0000000001327862E-4</v>
       </c>
       <c r="K88" s="7">
-        <f t="shared" si="21"/>
-        <v>-0.16999999999997328</v>
+        <f t="shared" si="27"/>
+        <v>-1.5999999999962711E-3</v>
       </c>
       <c r="L88" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.27625000000001876</v>
+        <f t="shared" si="28"/>
+        <v>-2.6000000000010459E-3</v>
       </c>
       <c r="M88" s="7"/>
       <c r="N88" s="7">
         <f>MAX(B88:F88)-MIN(B88:F88)</f>
-        <v>0.42499999999998295</v>
+        <v>3.9999999999906777E-3</v>
       </c>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
